--- a/donnees/listesAdherents/2024.xlsx
+++ b/donnees/listesAdherents/2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,6 +578,4746 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>an233@mail.com</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>AUBERT</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Nicolas</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>240122NA0;240102NA0</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>DON-ADH</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2 rue de la gerbille</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>38260</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>POMMIER DE BEAUREPAIRE</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr"/>
+      <c r="L2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>02/01/2024</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>rh323@exemple.fr</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>RENAULT</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Hortense</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>240121HR0;240102HR0</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>DON-ADH</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>3 rue du hamster</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>38410</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>Saint Martin d'Uriage</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr"/>
+      <c r="L3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3" t="inlineStr">
+        <is>
+          <t>02/01/2024</t>
+        </is>
+      </c>
+      <c r="R3" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>jij7667@exemple.fr</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>BLONDEL</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Henriette</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>240118HB0;240102HB0</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>DON-ADH</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>4 avenue du dromadaire</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>38700</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>La Tronche</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr"/>
+      <c r="L4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>02/01/2024</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>gn267@test.fr</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>GAY</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Noël</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>240102NG0</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>1 rue du lapin</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>38240</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>MEYLANI</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr"/>
+      <c r="L5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>02/01/2024</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>huhuhu898@mail.com</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>BOURDON</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Philippine</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>240118PB0;240104PB0</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>DON-ADH</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>5 allée des souris</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>38100</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>Grenoble</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr"/>
+      <c r="L6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3" t="inlineStr">
+        <is>
+          <t>04/01/2024</t>
+        </is>
+      </c>
+      <c r="R6" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>JIIJ8@test.fr</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>MARTINEAU</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Océane</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>240117OM0;240105OM0</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>DON-ADH</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>6 rue du capybara</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>26200</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>Montélimar</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr"/>
+      <c r="L7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="inlineStr">
+        <is>
+          <t>05/01/2024</t>
+        </is>
+      </c>
+      <c r="R7" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>kez9@exemple.fr</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>JACQUET</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Aurélie</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>240117AJ0;240105AJ0</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>DON-ADH</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>7 rue du zèbre</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>38660</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>LUMBIN</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr"/>
+      <c r="L8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="inlineStr">
+        <is>
+          <t>05/01/2024</t>
+        </is>
+      </c>
+      <c r="R8" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>qsa99@exemple.fr</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>DIAZ</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Corinne</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>240116CD0;240105CD0</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>DON-ADH</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>8 avenue des rongeurs</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>73200</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>ALBERTVILLE</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr"/>
+      <c r="L9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="inlineStr">
+        <is>
+          <t>05/01/2024</t>
+        </is>
+      </c>
+      <c r="R9" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>jij767@exemple.fr</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>LE</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Blanc boris</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>240105BL0</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>11 rue du lapin</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="n"/>
+      <c r="K10" s="3" t="inlineStr"/>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="inlineStr">
+        <is>
+          <t>05/01/2024</t>
+        </is>
+      </c>
+      <c r="R10" s="3" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="S10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>huhhu898@mail.com</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>GERMAIN</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>François</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>240107FG0</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>12 rue de la gerbille</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>77210</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>Avon</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr"/>
+      <c r="L11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3" t="inlineStr">
+        <is>
+          <t>07/01/2024</t>
+        </is>
+      </c>
+      <c r="R11" s="3" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="S11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>m898j@mail.com</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>LECLERC</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>240115WL0;240108WL0</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>DON-ADH</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>10 rue du hamster</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>38330</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>Saint-Ismier</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr"/>
+      <c r="L12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="inlineStr">
+        <is>
+          <t>08/01/2024</t>
+        </is>
+      </c>
+      <c r="R12" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>po009@mail.com</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>MEILLEUR</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Fleurette</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>240115FM0;240108FM0</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>DON-ADH</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>11 rue du lapin</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>38330</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>Saint Nazaire Les Eymes</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="inlineStr"/>
+      <c r="L13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3" t="inlineStr">
+        <is>
+          <t>08/01/2024</t>
+        </is>
+      </c>
+      <c r="R13" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>IIJ8@test.fr</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>LECLERC</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Fabien</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>240108FL0</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>13 rue du capybara</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="3" t="inlineStr"/>
+      <c r="L14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="inlineStr">
+        <is>
+          <t>08/01/2024</t>
+        </is>
+      </c>
+      <c r="R14" s="3" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="S14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>jdsi87@mail.com</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>LEBRUN</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>240115AL0;240109AL0</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>DON-ADH</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>12 rue de la gerbille</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>38260</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>Gillonnay</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr"/>
+      <c r="L15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="inlineStr">
+        <is>
+          <t>09/01/2024</t>
+        </is>
+      </c>
+      <c r="R15" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>98dks@exemple.fr</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>ROUSSET</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Aline</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>240114AR0;240103AR0;240109AR0</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>DON-ADH</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>13 rue du capybara</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>69500</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>Bron</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr"/>
+      <c r="L16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3" t="inlineStr">
+        <is>
+          <t>09/01/2024</t>
+        </is>
+      </c>
+      <c r="R16" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>kz9@exemple.fr</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>PASTIER</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Olivia</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>240109OP0</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>14 rue du zèbre</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>38410</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>Saint Martin d'Uriage</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr"/>
+      <c r="L17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="inlineStr">
+        <is>
+          <t>09/01/2024</t>
+        </is>
+      </c>
+      <c r="R17" s="3" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="S17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>0ddd9@test.fr</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>LESAGE</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>240116HL0;240108HL0;240110HL0</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>DON-ADH</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>9 allée des lagomorphes</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>38600</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>Fontaine</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr"/>
+      <c r="L18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3" t="inlineStr">
+        <is>
+          <t>10/01/2024</t>
+        </is>
+      </c>
+      <c r="R18" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S18" s="3" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>sd87@test.fr</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>ROUSSEAU</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Alexandra</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>240107AR0;240110AR0</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>DON-ADH</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>14 rue du zèbre</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>38760</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>Varces Allières et Risset</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr"/>
+      <c r="L19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>10/01/2024</t>
+        </is>
+      </c>
+      <c r="R19" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S19" s="3" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>huhu765@mail.com</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>RUISSEAU</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Amandine</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>240105AR0;240110AR0</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>DON-ADH</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>15 rue de la gerbille</t>
+        </is>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>38430</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>MOIRANS</t>
+        </is>
+      </c>
+      <c r="K20" s="3" t="inlineStr"/>
+      <c r="L20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="inlineStr">
+        <is>
+          <t>10/01/2024</t>
+        </is>
+      </c>
+      <c r="R20" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S20" s="3" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>koko8876@exemple.fr</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>RIVIÈRE</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Amélie</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>240102AR0;240110AR0</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>DON-ADH</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>16 rue du lapin</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>38500</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>VOIRON</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="inlineStr"/>
+      <c r="L21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3" t="inlineStr">
+        <is>
+          <t>10/01/2024</t>
+        </is>
+      </c>
+      <c r="R21" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>qa99@exemple.fr</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>RUCHER</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>240110VR0</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="n"/>
+      <c r="G22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>15 rue de la gerbille</t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>42000</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>saint etienne</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr"/>
+      <c r="L22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="inlineStr">
+        <is>
+          <t>10/01/2024</t>
+        </is>
+      </c>
+      <c r="R22" s="3" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="S22" s="3" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>sjjs183@mail.com</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>TEMPERET</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Véronique</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>240110VT0</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t>38 rue du capybara</t>
+        </is>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>GRENOBLE</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="inlineStr"/>
+      <c r="L23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3" t="inlineStr">
+        <is>
+          <t>10/01/2024</t>
+        </is>
+      </c>
+      <c r="R23" s="3" t="inlineStr">
+        <is>
+          <t>Espèce</t>
+        </is>
+      </c>
+      <c r="S23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>oty@test.fr</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>TISON</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>Léonie</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>240111LT0</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="n"/>
+      <c r="G24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>16 rue du lapin</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="n"/>
+      <c r="K24" s="3" t="inlineStr"/>
+      <c r="L24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="inlineStr">
+        <is>
+          <t>11/01/2024</t>
+        </is>
+      </c>
+      <c r="R24" s="3" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="S24" s="3" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>nj76@mail.com</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>CARY</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>André</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>240112AC0</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>17 rue du hamster</t>
+        </is>
+      </c>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>Grenoble</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="inlineStr"/>
+      <c r="L25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3" t="inlineStr">
+        <is>
+          <t>12/01/2024</t>
+        </is>
+      </c>
+      <c r="R25" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>joj98@mail.com</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>TAMALOUT</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>Alexandre</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>240113AT0</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>18 rue du lapin</t>
+        </is>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>GRENOBLE</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr"/>
+      <c r="L26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3" t="inlineStr">
+        <is>
+          <t>13/01/2024</t>
+        </is>
+      </c>
+      <c r="R26" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S26" s="3" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>ttye@mail.com</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>TRESSEAU</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Tristan</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>240114TT0</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="n"/>
+      <c r="G27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3" t="inlineStr">
+        <is>
+          <t>9 allée des lagomorphes</t>
+        </is>
+      </c>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>38170</t>
+        </is>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>Seyssinet Pariset</t>
+        </is>
+      </c>
+      <c r="K27" s="3" t="inlineStr"/>
+      <c r="L27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3" t="inlineStr">
+        <is>
+          <t>14/01/2024</t>
+        </is>
+      </c>
+      <c r="R27" s="3" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="S27" s="3" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>azaz@mail.com</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>MORGAN</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>240114MM0</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="n"/>
+      <c r="G28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="inlineStr">
+        <is>
+          <t>17 rue du hamster</t>
+        </is>
+      </c>
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>38110</t>
+        </is>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>St Didier De La Tour</t>
+        </is>
+      </c>
+      <c r="K28" s="3" t="inlineStr"/>
+      <c r="L28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3" t="inlineStr">
+        <is>
+          <t>14/01/2024</t>
+        </is>
+      </c>
+      <c r="R28" s="3" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="S28" s="3" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>ozoze@mail.com</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>LECLERC</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>Georges</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>240114GL0</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
+          <t>18 rue du lapin</t>
+        </is>
+      </c>
+      <c r="I29" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J29" s="3" t="n"/>
+      <c r="K29" s="3" t="inlineStr"/>
+      <c r="L29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="inlineStr">
+        <is>
+          <t>14/01/2024</t>
+        </is>
+      </c>
+      <c r="R29" s="3" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="S29" s="3" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>sd78@mail.com</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>PROVOST</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>Vincent</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>240115VP0</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>19 avenue du dromadaire</t>
+        </is>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>Grenoble</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr"/>
+      <c r="L30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3" t="inlineStr">
+        <is>
+          <t>15/01/2024</t>
+        </is>
+      </c>
+      <c r="R30" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S30" s="3" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>oiij78@test.fr</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>PREVOST</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>Arthur</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>240115AP0</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
+          <t>20 rue du lapin</t>
+        </is>
+      </c>
+      <c r="I31" s="3" t="inlineStr">
+        <is>
+          <t>38340</t>
+        </is>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>Voreppe</t>
+        </is>
+      </c>
+      <c r="K31" s="3" t="inlineStr"/>
+      <c r="L31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3" t="inlineStr">
+        <is>
+          <t>15/01/2024</t>
+        </is>
+      </c>
+      <c r="R31" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S31" s="3" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>mooj98@exemple.fr</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>JULIEN</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>Marion</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>240115MJ0</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3" t="inlineStr">
+        <is>
+          <t>21 rue de la gerbille</t>
+        </is>
+      </c>
+      <c r="I32" s="3" t="inlineStr">
+        <is>
+          <t>38440</t>
+        </is>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>ARTAS</t>
+        </is>
+      </c>
+      <c r="K32" s="3" t="inlineStr"/>
+      <c r="L32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="inlineStr">
+        <is>
+          <t>15/01/2024</t>
+        </is>
+      </c>
+      <c r="R32" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S32" s="3" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>zeze4@exemple.fr</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>SOLOGNOT</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>Solange</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>240116SS0</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3" t="inlineStr">
+        <is>
+          <t>19 avenue du dromadaire</t>
+        </is>
+      </c>
+      <c r="I33" s="3" t="inlineStr">
+        <is>
+          <t>38560</t>
+        </is>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>HAUTE JARRIE</t>
+        </is>
+      </c>
+      <c r="K33" s="3" t="inlineStr"/>
+      <c r="L33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3" t="inlineStr">
+        <is>
+          <t>16/01/2024</t>
+        </is>
+      </c>
+      <c r="R33" s="3" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="S33" s="3" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>ajab55@test.fr</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>AUBERT</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>Audrey</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>240116AA0</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="n"/>
+      <c r="G34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3" t="inlineStr">
+        <is>
+          <t>20 rue du lapin</t>
+        </is>
+      </c>
+      <c r="I34" s="3" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>VICHY</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr"/>
+      <c r="L34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3" t="inlineStr">
+        <is>
+          <t>16/01/2024</t>
+        </is>
+      </c>
+      <c r="R34" s="3" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="S34" s="3" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>zdzd48@mail.com</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>RENAULT</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>Roméo</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>240116RR0</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="n"/>
+      <c r="G35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3" t="inlineStr">
+        <is>
+          <t>21 rue de la gerbille</t>
+        </is>
+      </c>
+      <c r="I35" s="3" t="inlineStr">
+        <is>
+          <t>38340</t>
+        </is>
+      </c>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>Le Chevalon de Voreppe</t>
+        </is>
+      </c>
+      <c r="K35" s="3" t="inlineStr"/>
+      <c r="L35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3" t="inlineStr">
+        <is>
+          <t>16/01/2024</t>
+        </is>
+      </c>
+      <c r="R35" s="3" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="S35" s="3" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>jsjs65@exemple.fr</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>MAURICE</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>Matilda</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>240116MM0</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3" t="inlineStr">
+        <is>
+          <t>22 rue du zèbre</t>
+        </is>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>38350</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>Nantes en Rattier</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr"/>
+      <c r="L36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="3" t="inlineStr">
+        <is>
+          <t>16/01/2024</t>
+        </is>
+      </c>
+      <c r="R36" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S36" s="3" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>bbu756@mail.com</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>VINCENT</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>Véronique</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>240116VV0</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3" t="inlineStr">
+        <is>
+          <t>23 rue de la gerbille</t>
+        </is>
+      </c>
+      <c r="I37" s="3" t="inlineStr">
+        <is>
+          <t>38600</t>
+        </is>
+      </c>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>fontaine</t>
+        </is>
+      </c>
+      <c r="K37" s="3" t="inlineStr"/>
+      <c r="L37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="3" t="inlineStr">
+        <is>
+          <t>16/01/2024</t>
+        </is>
+      </c>
+      <c r="R37" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S37" s="3" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>bbhs65@test.fr</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>BOULANGER</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>Ludivine</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>240116LB0</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3" t="inlineStr">
+        <is>
+          <t>24 allée des lagomorphes</t>
+        </is>
+      </c>
+      <c r="I38" s="3" t="inlineStr">
+        <is>
+          <t>38640</t>
+        </is>
+      </c>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>CLAIX</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr"/>
+      <c r="L38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="3" t="inlineStr">
+        <is>
+          <t>16/01/2024</t>
+        </is>
+      </c>
+      <c r="R38" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S38" s="3" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>sqdsqf4@exemple.fr</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>BLONDEL</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>Noémie</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>240117NB0</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="n"/>
+      <c r="G39" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3" t="inlineStr">
+        <is>
+          <t>22 rue du zèbre</t>
+        </is>
+      </c>
+      <c r="I39" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J39" s="3" t="n"/>
+      <c r="K39" s="3" t="inlineStr"/>
+      <c r="L39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3" t="inlineStr">
+        <is>
+          <t>17/01/2024</t>
+        </is>
+      </c>
+      <c r="R39" s="3" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="S39" s="3" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>zopekzoek48@test.fr</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>BARRAU</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>240117SB0</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="n"/>
+      <c r="G40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3" t="inlineStr">
+        <is>
+          <t>23 rue de la gerbille</t>
+        </is>
+      </c>
+      <c r="I40" s="3" t="inlineStr">
+        <is>
+          <t>38450</t>
+        </is>
+      </c>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>Vif</t>
+        </is>
+      </c>
+      <c r="K40" s="3" t="inlineStr"/>
+      <c r="L40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="3" t="inlineStr">
+        <is>
+          <t>17/01/2024</t>
+        </is>
+      </c>
+      <c r="R40" s="3" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="S40" s="3" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>hdhc8@exemple.fr</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>PASTEUR</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>Thérèse</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>240118TP0</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G41" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3" t="inlineStr">
+        <is>
+          <t>25 rue du capybara</t>
+        </is>
+      </c>
+      <c r="I41" s="3" t="inlineStr">
+        <is>
+          <t>38600</t>
+        </is>
+      </c>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>Fontaine</t>
+        </is>
+      </c>
+      <c r="K41" s="3" t="inlineStr"/>
+      <c r="L41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="inlineStr">
+        <is>
+          <t>18/01/2024</t>
+        </is>
+      </c>
+      <c r="R41" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S41" s="3" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>jnjsd7@test.fr</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>PASTIER</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>Jean-pierre</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>240105JP0;240119JP0</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>DON-ADH</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="n"/>
+      <c r="G42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3" t="inlineStr">
+        <is>
+          <t>26 avenue du dromadaire</t>
+        </is>
+      </c>
+      <c r="I42" s="3" t="inlineStr">
+        <is>
+          <t>73700</t>
+        </is>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>SEEZ</t>
+        </is>
+      </c>
+      <c r="K42" s="3" t="inlineStr"/>
+      <c r="L42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3" t="inlineStr">
+        <is>
+          <t>19/01/2024</t>
+        </is>
+      </c>
+      <c r="R42" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S42" s="3" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>lpalaze4@mail.com</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>MARTINEAU</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>Bérangère</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>240119BM0</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="n"/>
+      <c r="G43" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3" t="inlineStr">
+        <is>
+          <t>24 allée des lagomorphes</t>
+        </is>
+      </c>
+      <c r="I43" s="3" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>Grenoble</t>
+        </is>
+      </c>
+      <c r="K43" s="3" t="inlineStr"/>
+      <c r="L43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3" t="inlineStr">
+        <is>
+          <t>19/01/2024</t>
+        </is>
+      </c>
+      <c r="R43" s="3" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="S43" s="3" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>azazd18@mail.com</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>JACQUET</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>Jacques</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>240120JJ0</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="n"/>
+      <c r="G44" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3" t="inlineStr">
+        <is>
+          <t>25 rue du capybara</t>
+        </is>
+      </c>
+      <c r="I44" s="3" t="inlineStr">
+        <is>
+          <t>38110</t>
+        </is>
+      </c>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>La Chapelle de la tour</t>
+        </is>
+      </c>
+      <c r="K44" s="3" t="inlineStr"/>
+      <c r="L44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3" t="inlineStr">
+        <is>
+          <t>20/01/2024</t>
+        </is>
+      </c>
+      <c r="R44" s="3" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="S44" s="3" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>fbb5@mail.com</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>DIAZ</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>Diana</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>240120DD0</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="n"/>
+      <c r="G45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3" t="inlineStr">
+        <is>
+          <t>28 allée des lagomorphes</t>
+        </is>
+      </c>
+      <c r="I45" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J45" s="3" t="n"/>
+      <c r="K45" s="3" t="inlineStr"/>
+      <c r="L45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="inlineStr">
+        <is>
+          <t>20/01/2024</t>
+        </is>
+      </c>
+      <c r="R45" s="3" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="S45" s="3" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>jbjsbd8@exemple.fr</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>RUCHER</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>Francis</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>240122FR0</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3" t="inlineStr">
+        <is>
+          <t>27 rue du lapin</t>
+        </is>
+      </c>
+      <c r="I46" s="3" t="inlineStr">
+        <is>
+          <t>38920</t>
+        </is>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>Crolles</t>
+        </is>
+      </c>
+      <c r="K46" s="3" t="inlineStr"/>
+      <c r="L46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3" t="inlineStr">
+        <is>
+          <t>22/01/2024</t>
+        </is>
+      </c>
+      <c r="R46" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S46" s="3" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>sjdbj786@exemple.fr</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>TISON</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>Gisèle</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>240122GT0</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3" t="inlineStr">
+        <is>
+          <t>28 allée des lagomorphes</t>
+        </is>
+      </c>
+      <c r="I47" s="3" t="inlineStr">
+        <is>
+          <t>38190</t>
+        </is>
+      </c>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>LAVAL</t>
+        </is>
+      </c>
+      <c r="K47" s="3" t="inlineStr"/>
+      <c r="L47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3" t="inlineStr">
+        <is>
+          <t>22/01/2024</t>
+        </is>
+      </c>
+      <c r="R47" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S47" s="3" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>bhsd112@test.fr</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>TRESSEAU</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>Yves</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>240122YT0</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3" t="inlineStr">
+        <is>
+          <t>29 rue du zèbre</t>
+        </is>
+      </c>
+      <c r="I48" s="3" t="inlineStr">
+        <is>
+          <t>38360</t>
+        </is>
+      </c>
+      <c r="J48" s="3" t="inlineStr">
+        <is>
+          <t>Noyarey</t>
+        </is>
+      </c>
+      <c r="K48" s="3" t="inlineStr"/>
+      <c r="L48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="inlineStr">
+        <is>
+          <t>22/01/2024</t>
+        </is>
+      </c>
+      <c r="R48" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S48" s="3" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>jij134@exemple.fr</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>MORGAN</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>Gilles</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>240123GM0</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="3" t="inlineStr">
+        <is>
+          <t>30 rue du lapin</t>
+        </is>
+      </c>
+      <c r="I49" s="3" t="inlineStr">
+        <is>
+          <t>38600</t>
+        </is>
+      </c>
+      <c r="J49" s="3" t="inlineStr">
+        <is>
+          <t>FONTAINE</t>
+        </is>
+      </c>
+      <c r="K49" s="3" t="inlineStr"/>
+      <c r="L49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="R49" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S49" s="3" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>hu7651@test.fr</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>LECLERC</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>Léa</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>240123LL0</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3" t="inlineStr">
+        <is>
+          <t>31 rue de la gerbille</t>
+        </is>
+      </c>
+      <c r="I50" s="3" t="inlineStr">
+        <is>
+          <t>38610</t>
+        </is>
+      </c>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>Gières</t>
+        </is>
+      </c>
+      <c r="K50" s="3" t="inlineStr"/>
+      <c r="L50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="R50" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S50" s="3" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>apn514@mail.com</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>PARASOL</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>Nathalie</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>240123NP0</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="3" t="inlineStr">
+        <is>
+          <t>39 rue de la gerbille</t>
+        </is>
+      </c>
+      <c r="I51" s="3" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>GRENOBLE</t>
+        </is>
+      </c>
+      <c r="K51" s="3" t="inlineStr"/>
+      <c r="L51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="R51" s="3" t="inlineStr">
+        <is>
+          <t>Espèce</t>
+        </is>
+      </c>
+      <c r="S51" s="3" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>gn267@test.fr</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>GAY</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>Noël</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>240124NG0</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="n"/>
+      <c r="G52" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="3" t="inlineStr">
+        <is>
+          <t>1 rue du lapin</t>
+        </is>
+      </c>
+      <c r="I52" s="3" t="inlineStr">
+        <is>
+          <t>38240</t>
+        </is>
+      </c>
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>MEYLANI</t>
+        </is>
+      </c>
+      <c r="K52" s="3" t="inlineStr"/>
+      <c r="L52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="R52" s="3" t="inlineStr">
+        <is>
+          <t>helloAsso</t>
+        </is>
+      </c>
+      <c r="S52" s="3" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>12djd@mail.com</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>SOLOGNOT</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>Léo</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>240124LS0</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G53" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="3" t="inlineStr">
+        <is>
+          <t>32 rue du zèbre</t>
+        </is>
+      </c>
+      <c r="I53" s="3" t="inlineStr">
+        <is>
+          <t>69230</t>
+        </is>
+      </c>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>SAINT-GENIS-LAVAL</t>
+        </is>
+      </c>
+      <c r="K53" s="3" t="inlineStr"/>
+      <c r="L53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="R53" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S53" s="3" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>art134@mail.com</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>Patrice</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>240105PN0;240126PN0</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>DON-ADH</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="n"/>
+      <c r="G54" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>34 rue du lapin</t>
+        </is>
+      </c>
+      <c r="I54" s="3" t="inlineStr">
+        <is>
+          <t>38120</t>
+        </is>
+      </c>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>Saint-Égrève</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr"/>
+      <c r="L54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="R54" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S54" s="3" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>091ssj@exemple.fr</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>ZANZIBAR</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>Maurice</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>240126MZ0</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G55" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="3" t="inlineStr">
+        <is>
+          <t>33 rue de la gerbille</t>
+        </is>
+      </c>
+      <c r="I55" s="3" t="inlineStr">
+        <is>
+          <t>38110</t>
+        </is>
+      </c>
+      <c r="J55" s="3" t="inlineStr">
+        <is>
+          <t>MONTAGNIEU</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr"/>
+      <c r="L55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="3" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="R55" s="3" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="S55" s="3" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>ea7@test.fr</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>LESAGE</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>Léo</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>240127LL0</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="n"/>
+      <c r="G56" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="3" t="inlineStr">
+        <is>
+          <t>29 rue du zèbre</t>
+        </is>
+      </c>
+      <c r="I56" s="3" t="inlineStr">
+        <is>
+          <t>30240</t>
+        </is>
+      </c>
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>Le Grau-du-Roi</t>
+        </is>
+      </c>
+      <c r="K56" s="3" t="inlineStr"/>
+      <c r="L56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="3" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="R56" s="3" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="S56" s="3" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>zdeqsooj98@exemple.fr</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>WEBER</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>Therese</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>240129TW0</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="n"/>
+      <c r="G57" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3" t="inlineStr">
+        <is>
+          <t>33 rue de la gerbille</t>
+        </is>
+      </c>
+      <c r="I57" s="3" t="inlineStr">
+        <is>
+          <t>38390</t>
+        </is>
+      </c>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>VERTRIEU</t>
+        </is>
+      </c>
+      <c r="K57" s="3" t="inlineStr"/>
+      <c r="L57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="inlineStr">
+        <is>
+          <t>29/01/2024</t>
+        </is>
+      </c>
+      <c r="R57" s="3" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="S57" s="3" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>112ssss@mail.com</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>FROID</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>Patricia</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>240129PF0</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3" t="inlineStr">
+        <is>
+          <t>35 avenue du dromadaire</t>
+        </is>
+      </c>
+      <c r="I58" s="3" t="inlineStr">
+        <is>
+          <t>38150</t>
+        </is>
+      </c>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>Salaise-sur-Sanne 38150</t>
+        </is>
+      </c>
+      <c r="K58" s="3" t="inlineStr"/>
+      <c r="L58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="inlineStr">
+        <is>
+          <t>29/01/2024</t>
+        </is>
+      </c>
+      <c r="R58" s="3" t="inlineStr">
+        <is>
+          <t>Chèque</t>
+        </is>
+      </c>
+      <c r="S58" s="3" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>uhu761@test.fr</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>CHAUD</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>Henri</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>240129HC0</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G59" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="3" t="inlineStr">
+        <is>
+          <t>36 rue du hamster</t>
+        </is>
+      </c>
+      <c r="I59" s="3" t="inlineStr">
+        <is>
+          <t>38300</t>
+        </is>
+      </c>
+      <c r="J59" s="3" t="inlineStr">
+        <is>
+          <t>BOURGOIN JALLIEU</t>
+        </is>
+      </c>
+      <c r="K59" s="3" t="inlineStr"/>
+      <c r="L59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="inlineStr">
+        <is>
+          <t>29/01/2024</t>
+        </is>
+      </c>
+      <c r="R59" s="3" t="inlineStr">
+        <is>
+          <t>Chèque</t>
+        </is>
+      </c>
+      <c r="S59" s="3" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>azaz541@test.fr</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>TIÈDE</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>240129AT0</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G60" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3" t="inlineStr">
+        <is>
+          <t>37 rue du lapin</t>
+        </is>
+      </c>
+      <c r="I60" s="3" t="inlineStr">
+        <is>
+          <t>38610</t>
+        </is>
+      </c>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>Gieres</t>
+        </is>
+      </c>
+      <c r="K60" s="3" t="inlineStr"/>
+      <c r="L60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3" t="inlineStr">
+        <is>
+          <t>29/01/2024</t>
+        </is>
+      </c>
+      <c r="R60" s="3" t="inlineStr">
+        <is>
+          <t>Chèque</t>
+        </is>
+      </c>
+      <c r="S60" s="3" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>zdqd52@exemple.fr</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>KOWALSKI</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>Francis</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>240131FK0</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="n"/>
+      <c r="G61" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="3" t="inlineStr">
+        <is>
+          <t>38 rue du capybara</t>
+        </is>
+      </c>
+      <c r="I61" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J61" s="3" t="n"/>
+      <c r="K61" s="3" t="inlineStr"/>
+      <c r="L61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3" t="inlineStr">
+        <is>
+          <t>31/01/2024</t>
+        </is>
+      </c>
+      <c r="R61" s="3" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="S61" s="3" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>lmm4@mail.com</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>BOURDON</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>Julien</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>240131JB0</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="n"/>
+      <c r="G62" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3" t="inlineStr">
+        <is>
+          <t>39 rue de la gerbille</t>
+        </is>
+      </c>
+      <c r="I62" s="3" t="inlineStr">
+        <is>
+          <t>38090</t>
+        </is>
+      </c>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>Villefontaine</t>
+        </is>
+      </c>
+      <c r="K62" s="3" t="inlineStr"/>
+      <c r="L62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="inlineStr">
+        <is>
+          <t>31/01/2024</t>
+        </is>
+      </c>
+      <c r="R62" s="3" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="S62" s="3" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>zse59@exemple.fr</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>BOUCHARD</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>Victoire</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>240801VB0</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="n"/>
+      <c r="G63" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6 rue des Cockers </t>
+        </is>
+      </c>
+      <c r="I63" s="3" t="inlineStr">
+        <is>
+          <t>8011</t>
+        </is>
+      </c>
+      <c r="J63" s="3" t="inlineStr">
+        <is>
+          <t>Gre-sur-Ciel</t>
+        </is>
+      </c>
+      <c r="K63" s="3" t="inlineStr">
+        <is>
+          <t>707070707</t>
+        </is>
+      </c>
+      <c r="L63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="R63" s="3" t="inlineStr">
+        <is>
+          <t>cb</t>
+        </is>
+      </c>
+      <c r="S63" s="3" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>zdeokek@mail.com</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>BOULANGER</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>240802VB0</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="n"/>
+      <c r="G64" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="3" t="inlineStr">
+        <is>
+          <t>6 ter Passage du Chat Européen Appt 66</t>
+        </is>
+      </c>
+      <c r="I64" s="3" t="inlineStr">
+        <is>
+          <t>38010</t>
+        </is>
+      </c>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>Gre-sur-Isère</t>
+        </is>
+      </c>
+      <c r="K64" s="3" t="inlineStr">
+        <is>
+          <t>606060606</t>
+        </is>
+      </c>
+      <c r="L64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3" t="inlineStr">
+        <is>
+          <t>02/08/2024</t>
+        </is>
+      </c>
+      <c r="R64" s="3" t="inlineStr">
+        <is>
+          <t>cb</t>
+        </is>
+      </c>
+      <c r="S64" s="3" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>vincent.bourdon41@gmail.com</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>BOURDON</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>Vincent</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>241001VB0</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="n"/>
+      <c r="G65" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6 Allée Aloyzi Kospicki </t>
+        </is>
+      </c>
+      <c r="I65" s="3" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>Grenoble</t>
+        </is>
+      </c>
+      <c r="K65" s="3" t="inlineStr">
+        <is>
+          <t>760576629</t>
+        </is>
+      </c>
+      <c r="L65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="R65" s="3" t="inlineStr">
+        <is>
+          <t>cb</t>
+        </is>
+      </c>
+      <c r="S65" s="3" t="n"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/donnees/listesAdherents/2024.xlsx
+++ b/donnees/listesAdherents/2024.xlsx
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -80,12 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -579,4744 +576,4744 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>an233@mail.com</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>AUBERT</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Nicolas</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>240122NA0;240102NA0</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>240122NA1;240102NA1</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>DON-ADH</t>
         </is>
       </c>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>2 rue de la gerbille</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>38260</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>POMMIER DE BEAUREPAIRE</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr"/>
-      <c r="L2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>02/01/2024</t>
         </is>
       </c>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="R2" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S2" s="3" t="n"/>
+      <c r="S2" s="2" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>rh323@exemple.fr</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>RENAULT</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Hortense</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>240121HR0;240102HR0</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>240121HR1;240102HR1</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>DON-ADH</t>
         </is>
       </c>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>3 rue du hamster</t>
         </is>
       </c>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>38410</t>
         </is>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="J3" s="2" t="inlineStr">
         <is>
           <t>Saint Martin d'Uriage</t>
         </is>
       </c>
-      <c r="K3" s="3" t="inlineStr"/>
-      <c r="L3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3" t="inlineStr">
+      <c r="K3" s="2" t="inlineStr"/>
+      <c r="L3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="inlineStr">
         <is>
           <t>02/01/2024</t>
         </is>
       </c>
-      <c r="R3" s="3" t="inlineStr">
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S3" s="3" t="n"/>
+      <c r="S3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>jij7667@exemple.fr</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>BLONDEL</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Henriette</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>240118HB0;240102HB0</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>240118HB1;240102HB1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>DON-ADH</t>
         </is>
       </c>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>4 avenue du dromadaire</t>
         </is>
       </c>
-      <c r="I4" s="3" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>38700</t>
         </is>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>La Tronche</t>
         </is>
       </c>
-      <c r="K4" s="3" t="inlineStr"/>
-      <c r="L4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>02/01/2024</t>
         </is>
       </c>
-      <c r="R4" s="3" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S4" s="3" t="n"/>
+      <c r="S4" s="2" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>gn267@test.fr</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>GAY</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>Noël</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>240102NG0</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>240102NG1</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>1 rue du lapin</t>
         </is>
       </c>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>38240</t>
         </is>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>MEYLANI</t>
         </is>
       </c>
-      <c r="K5" s="3" t="inlineStr"/>
-      <c r="L5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr"/>
+      <c r="L5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
         <is>
           <t>02/01/2024</t>
         </is>
       </c>
-      <c r="R5" s="3" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S5" s="3" t="n"/>
+      <c r="S5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>huhuhu898@mail.com</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>BOURDON</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>Philippine</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>240118PB0;240104PB0</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>240118PB1;240104PB1</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>DON-ADH</t>
         </is>
       </c>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>5 allée des souris</t>
         </is>
       </c>
-      <c r="I6" s="3" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>38100</t>
         </is>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>Grenoble</t>
         </is>
       </c>
-      <c r="K6" s="3" t="inlineStr"/>
-      <c r="L6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>04/01/2024</t>
         </is>
       </c>
-      <c r="R6" s="3" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S6" s="3" t="n"/>
+      <c r="S6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>JIIJ8@test.fr</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>MARTINEAU</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>Océane</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>240117OM0;240105OM0</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>240117OM1;240105OM1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>DON-ADH</t>
         </is>
       </c>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>6 rue du capybara</t>
         </is>
       </c>
-      <c r="I7" s="3" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>26200</t>
         </is>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>Montélimar</t>
         </is>
       </c>
-      <c r="K7" s="3" t="inlineStr"/>
-      <c r="L7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr"/>
+      <c r="L7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
         <is>
           <t>05/01/2024</t>
         </is>
       </c>
-      <c r="R7" s="3" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S7" s="3" t="n"/>
+      <c r="S7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>kez9@exemple.fr</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>JACQUET</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>Aurélie</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>240117AJ0;240105AJ0</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>240117AJ1;240105AJ1</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>DON-ADH</t>
         </is>
       </c>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>7 rue du zèbre</t>
         </is>
       </c>
-      <c r="I8" s="3" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>38660</t>
         </is>
       </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>LUMBIN</t>
         </is>
       </c>
-      <c r="K8" s="3" t="inlineStr"/>
-      <c r="L8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr"/>
+      <c r="L8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>05/01/2024</t>
         </is>
       </c>
-      <c r="R8" s="3" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S8" s="3" t="n"/>
+      <c r="S8" s="2" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>qsa99@exemple.fr</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>DIAZ</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>Corinne</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>240116CD0;240105CD0</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>240116CD1;240105CD1</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>DON-ADH</t>
         </is>
       </c>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="inlineStr">
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>8 avenue des rongeurs</t>
         </is>
       </c>
-      <c r="I9" s="3" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>73200</t>
         </is>
       </c>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>ALBERTVILLE</t>
         </is>
       </c>
-      <c r="K9" s="3" t="inlineStr"/>
-      <c r="L9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
         <is>
           <t>05/01/2024</t>
         </is>
       </c>
-      <c r="R9" s="3" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S9" s="3" t="n"/>
+      <c r="S9" s="2" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>jij767@exemple.fr</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>LE</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>Blanc boris</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>240105BL0</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>240105BL1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>11 rue du lapin</t>
         </is>
       </c>
-      <c r="I10" s="3" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="J10" s="3" t="n"/>
-      <c r="K10" s="3" t="inlineStr"/>
-      <c r="L10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="inlineStr">
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="inlineStr"/>
+      <c r="L10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>05/01/2024</t>
         </is>
       </c>
-      <c r="R10" s="3" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S10" s="3" t="n"/>
+      <c r="S10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>huhhu898@mail.com</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>GERMAIN</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>François</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>240107FG0</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>240107FG1</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>12 rue de la gerbille</t>
         </is>
       </c>
-      <c r="I11" s="3" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>77210</t>
         </is>
       </c>
-      <c r="J11" s="3" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>Avon</t>
         </is>
       </c>
-      <c r="K11" s="3" t="inlineStr"/>
-      <c r="L11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>07/01/2024</t>
         </is>
       </c>
-      <c r="R11" s="3" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S11" s="3" t="n"/>
+      <c r="S11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>m898j@mail.com</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>LECLERC</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>William</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>240115WL0;240108WL0</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>240115WL1;240108WL1</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>DON-ADH</t>
         </is>
       </c>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>10 rue du hamster</t>
         </is>
       </c>
-      <c r="I12" s="3" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>38330</t>
         </is>
       </c>
-      <c r="J12" s="3" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>Saint-Ismier</t>
         </is>
       </c>
-      <c r="K12" s="3" t="inlineStr"/>
-      <c r="L12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr"/>
+      <c r="L12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>08/01/2024</t>
         </is>
       </c>
-      <c r="R12" s="3" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S12" s="3" t="n"/>
+      <c r="S12" s="2" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>po009@mail.com</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>MEILLEUR</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>Fleurette</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>240115FM0;240108FM0</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>240115FM1;240108FM1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>DON-ADH</t>
         </is>
       </c>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>11 rue du lapin</t>
         </is>
       </c>
-      <c r="I13" s="3" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>38330</t>
         </is>
       </c>
-      <c r="J13" s="3" t="inlineStr">
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>Saint Nazaire Les Eymes</t>
         </is>
       </c>
-      <c r="K13" s="3" t="inlineStr"/>
-      <c r="L13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3" t="inlineStr">
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>08/01/2024</t>
         </is>
       </c>
-      <c r="R13" s="3" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S13" s="3" t="n"/>
+      <c r="S13" s="2" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>IIJ8@test.fr</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>LECLERC</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>Fabien</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>240108FL0</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>240108FL1</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>13 rue du capybara</t>
         </is>
       </c>
-      <c r="I14" s="3" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="J14" s="3" t="n"/>
-      <c r="K14" s="3" t="inlineStr"/>
-      <c r="L14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="inlineStr">
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="inlineStr"/>
+      <c r="L14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>08/01/2024</t>
         </is>
       </c>
-      <c r="R14" s="3" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S14" s="3" t="n"/>
+      <c r="S14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>jdsi87@mail.com</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>LEBRUN</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>Alice</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>240115AL0;240109AL0</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>240115AL1;240109AL1</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>DON-ADH</t>
         </is>
       </c>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>12 rue de la gerbille</t>
         </is>
       </c>
-      <c r="I15" s="3" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>38260</t>
         </is>
       </c>
-      <c r="J15" s="3" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>Gillonnay</t>
         </is>
       </c>
-      <c r="K15" s="3" t="inlineStr"/>
-      <c r="L15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr"/>
+      <c r="L15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>09/01/2024</t>
         </is>
       </c>
-      <c r="R15" s="3" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S15" s="3" t="n"/>
+      <c r="S15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>98dks@exemple.fr</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>ROUSSET</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>Aline</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>240114AR0;240103AR0;240109AR0</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>240114AR1;240103AR1;240109AR1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>DON-ADH</t>
         </is>
       </c>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>13 rue du capybara</t>
         </is>
       </c>
-      <c r="I16" s="3" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>69500</t>
         </is>
       </c>
-      <c r="J16" s="3" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>Bron</t>
         </is>
       </c>
-      <c r="K16" s="3" t="inlineStr"/>
-      <c r="L16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr"/>
+      <c r="L16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>09/01/2024</t>
         </is>
       </c>
-      <c r="R16" s="3" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S16" s="3" t="n"/>
+      <c r="S16" s="2" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>kz9@exemple.fr</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>PASTIER</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>Olivia</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>240109OP0</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>240109OP1</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>14 rue du zèbre</t>
         </is>
       </c>
-      <c r="I17" s="3" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>38410</t>
         </is>
       </c>
-      <c r="J17" s="3" t="inlineStr">
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>Saint Martin d'Uriage</t>
         </is>
       </c>
-      <c r="K17" s="3" t="inlineStr"/>
-      <c r="L17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="inlineStr">
+      <c r="K17" s="2" t="inlineStr"/>
+      <c r="L17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
         <is>
           <t>09/01/2024</t>
         </is>
       </c>
-      <c r="R17" s="3" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S17" s="3" t="n"/>
+      <c r="S17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>0ddd9@test.fr</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>LESAGE</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>Henri</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>240116HL0;240108HL0;240110HL0</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>240116HL1;240108HL1;240110HL1</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>DON-ADH</t>
         </is>
       </c>
-      <c r="F18" s="3" t="n"/>
-      <c r="G18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>9 allée des lagomorphes</t>
         </is>
       </c>
-      <c r="I18" s="3" t="inlineStr">
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>38600</t>
         </is>
       </c>
-      <c r="J18" s="3" t="inlineStr">
+      <c r="J18" s="2" t="inlineStr">
         <is>
           <t>Fontaine</t>
         </is>
       </c>
-      <c r="K18" s="3" t="inlineStr"/>
-      <c r="L18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3" t="inlineStr">
+      <c r="K18" s="2" t="inlineStr"/>
+      <c r="L18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
         <is>
           <t>10/01/2024</t>
         </is>
       </c>
-      <c r="R18" s="3" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S18" s="3" t="n"/>
+      <c r="S18" s="2" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>sd87@test.fr</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>ROUSSEAU</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>Alexandra</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>240107AR0;240110AR0</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>240107AR1;240110AR3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>DON-ADH</t>
         </is>
       </c>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3" t="inlineStr">
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>14 rue du zèbre</t>
         </is>
       </c>
-      <c r="I19" s="3" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>38760</t>
         </is>
       </c>
-      <c r="J19" s="3" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>Varces Allières et Risset</t>
         </is>
       </c>
-      <c r="K19" s="3" t="inlineStr"/>
-      <c r="L19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr"/>
+      <c r="L19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
         <is>
           <t>10/01/2024</t>
         </is>
       </c>
-      <c r="R19" s="3" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S19" s="3" t="n"/>
+      <c r="S19" s="2" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>huhu765@mail.com</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>RUISSEAU</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Amandine</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>240105AR0;240110AR0</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>240105AR1;240110AR2</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>DON-ADH</t>
         </is>
       </c>
-      <c r="F20" s="3" t="n"/>
-      <c r="G20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3" t="inlineStr">
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>15 rue de la gerbille</t>
         </is>
       </c>
-      <c r="I20" s="3" t="inlineStr">
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>38430</t>
         </is>
       </c>
-      <c r="J20" s="3" t="inlineStr">
+      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>MOIRANS</t>
         </is>
       </c>
-      <c r="K20" s="3" t="inlineStr"/>
-      <c r="L20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="inlineStr">
+      <c r="K20" s="2" t="inlineStr"/>
+      <c r="L20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
         <is>
           <t>10/01/2024</t>
         </is>
       </c>
-      <c r="R20" s="3" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S20" s="3" t="n"/>
+      <c r="S20" s="2" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>koko8876@exemple.fr</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>RIVIÈRE</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Amélie</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>240102AR0;240110AR0</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>240102AR1;240110AR1</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>DON-ADH</t>
         </is>
       </c>
-      <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3" t="inlineStr">
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>16 rue du lapin</t>
         </is>
       </c>
-      <c r="I21" s="3" t="inlineStr">
+      <c r="I21" s="2" t="inlineStr">
         <is>
           <t>38500</t>
         </is>
       </c>
-      <c r="J21" s="3" t="inlineStr">
+      <c r="J21" s="2" t="inlineStr">
         <is>
           <t>VOIRON</t>
         </is>
       </c>
-      <c r="K21" s="3" t="inlineStr"/>
-      <c r="L21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3" t="inlineStr">
+      <c r="K21" s="2" t="inlineStr"/>
+      <c r="L21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
         <is>
           <t>10/01/2024</t>
         </is>
       </c>
-      <c r="R21" s="3" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S21" s="3" t="n"/>
+      <c r="S21" s="2" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>qa99@exemple.fr</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>RUCHER</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>Victor</t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>240110VR0</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>240110VR1</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F22" s="3" t="n"/>
-      <c r="G22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3" t="inlineStr">
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
         <is>
           <t>15 rue de la gerbille</t>
         </is>
       </c>
-      <c r="I22" s="3" t="inlineStr">
+      <c r="I22" s="2" t="inlineStr">
         <is>
           <t>42000</t>
         </is>
       </c>
-      <c r="J22" s="3" t="inlineStr">
+      <c r="J22" s="2" t="inlineStr">
         <is>
           <t>saint etienne</t>
         </is>
       </c>
-      <c r="K22" s="3" t="inlineStr"/>
-      <c r="L22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="inlineStr">
+      <c r="K22" s="2" t="inlineStr"/>
+      <c r="L22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
         <is>
           <t>10/01/2024</t>
         </is>
       </c>
-      <c r="R22" s="3" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S22" s="3" t="n"/>
+      <c r="S22" s="2" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>sjjs183@mail.com</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>TEMPERET</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Véronique</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>240110VT0</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>240110VT1</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="F23" s="3" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G23" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3" t="inlineStr">
+      <c r="G23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
         <is>
           <t>38 rue du capybara</t>
         </is>
       </c>
-      <c r="I23" s="3" t="inlineStr">
+      <c r="I23" s="2" t="inlineStr">
         <is>
           <t>38000</t>
         </is>
       </c>
-      <c r="J23" s="3" t="inlineStr">
+      <c r="J23" s="2" t="inlineStr">
         <is>
           <t>GRENOBLE</t>
         </is>
       </c>
-      <c r="K23" s="3" t="inlineStr"/>
-      <c r="L23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3" t="inlineStr">
+      <c r="K23" s="2" t="inlineStr"/>
+      <c r="L23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
         <is>
           <t>10/01/2024</t>
         </is>
       </c>
-      <c r="R23" s="3" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Espèce</t>
         </is>
       </c>
-      <c r="S23" s="3" t="n"/>
+      <c r="S23" s="2" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>oty@test.fr</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>TISON</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Léonie</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>240111LT0</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>240111LT1</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F24" s="3" t="n"/>
-      <c r="G24" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3" t="inlineStr">
+      <c r="F24" s="2" t="n"/>
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
         <is>
           <t>16 rue du lapin</t>
         </is>
       </c>
-      <c r="I24" s="3" t="inlineStr">
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="J24" s="3" t="n"/>
-      <c r="K24" s="3" t="inlineStr"/>
-      <c r="L24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="inlineStr">
+      <c r="J24" s="2" t="n"/>
+      <c r="K24" s="2" t="inlineStr"/>
+      <c r="L24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
         <is>
           <t>11/01/2024</t>
         </is>
       </c>
-      <c r="R24" s="3" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S24" s="3" t="n"/>
+      <c r="S24" s="2" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>nj76@mail.com</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>CARY</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>André</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>240112AC0</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>240112AC1</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="F25" s="3" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G25" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3" t="inlineStr">
+      <c r="G25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
         <is>
           <t>17 rue du hamster</t>
         </is>
       </c>
-      <c r="I25" s="3" t="inlineStr">
+      <c r="I25" s="2" t="inlineStr">
         <is>
           <t>38000</t>
         </is>
       </c>
-      <c r="J25" s="3" t="inlineStr">
+      <c r="J25" s="2" t="inlineStr">
         <is>
           <t>Grenoble</t>
         </is>
       </c>
-      <c r="K25" s="3" t="inlineStr"/>
-      <c r="L25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="3" t="inlineStr">
+      <c r="K25" s="2" t="inlineStr"/>
+      <c r="L25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
         <is>
           <t>12/01/2024</t>
         </is>
       </c>
-      <c r="R25" s="3" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S25" s="3" t="n"/>
+      <c r="S25" s="2" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>joj98@mail.com</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>TAMALOUT</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Alexandre</t>
         </is>
       </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>240113AT0</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>240113AT1</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="F26" s="3" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3" t="inlineStr">
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
         <is>
           <t>18 rue du lapin</t>
         </is>
       </c>
-      <c r="I26" s="3" t="inlineStr">
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>38000</t>
         </is>
       </c>
-      <c r="J26" s="3" t="inlineStr">
+      <c r="J26" s="2" t="inlineStr">
         <is>
           <t>GRENOBLE</t>
         </is>
       </c>
-      <c r="K26" s="3" t="inlineStr"/>
-      <c r="L26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="inlineStr">
+      <c r="K26" s="2" t="inlineStr"/>
+      <c r="L26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
         <is>
           <t>13/01/2024</t>
         </is>
       </c>
-      <c r="R26" s="3" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S26" s="3" t="n"/>
+      <c r="S26" s="2" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>ttye@mail.com</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>TRESSEAU</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>Tristan</t>
         </is>
       </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>240114TT0</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>240114TT1</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F27" s="3" t="n"/>
-      <c r="G27" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3" t="inlineStr">
+      <c r="F27" s="2" t="n"/>
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
         <is>
           <t>9 allée des lagomorphes</t>
         </is>
       </c>
-      <c r="I27" s="3" t="inlineStr">
+      <c r="I27" s="2" t="inlineStr">
         <is>
           <t>38170</t>
         </is>
       </c>
-      <c r="J27" s="3" t="inlineStr">
+      <c r="J27" s="2" t="inlineStr">
         <is>
           <t>Seyssinet Pariset</t>
         </is>
       </c>
-      <c r="K27" s="3" t="inlineStr"/>
-      <c r="L27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3" t="inlineStr">
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
         <is>
           <t>14/01/2024</t>
         </is>
       </c>
-      <c r="R27" s="3" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S27" s="3" t="n"/>
+      <c r="S27" s="2" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>azaz@mail.com</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>MORGAN</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>Moral</t>
         </is>
       </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>240114MM0</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>240114MM1</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F28" s="3" t="n"/>
-      <c r="G28" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3" t="inlineStr">
+      <c r="F28" s="2" t="n"/>
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
         <is>
           <t>17 rue du hamster</t>
         </is>
       </c>
-      <c r="I28" s="3" t="inlineStr">
+      <c r="I28" s="2" t="inlineStr">
         <is>
           <t>38110</t>
         </is>
       </c>
-      <c r="J28" s="3" t="inlineStr">
+      <c r="J28" s="2" t="inlineStr">
         <is>
           <t>St Didier De La Tour</t>
         </is>
       </c>
-      <c r="K28" s="3" t="inlineStr"/>
-      <c r="L28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="3" t="inlineStr">
+      <c r="K28" s="2" t="inlineStr"/>
+      <c r="L28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
         <is>
           <t>14/01/2024</t>
         </is>
       </c>
-      <c r="R28" s="3" t="inlineStr">
+      <c r="R28" s="2" t="inlineStr">
         <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S28" s="3" t="n"/>
+      <c r="S28" s="2" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>ozoze@mail.com</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>LECLERC</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>Georges</t>
         </is>
       </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>240114GL0</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>240114GL1</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F29" s="3" t="n"/>
-      <c r="G29" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3" t="inlineStr">
+      <c r="F29" s="2" t="n"/>
+      <c r="G29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
         <is>
           <t>18 rue du lapin</t>
         </is>
       </c>
-      <c r="I29" s="3" t="inlineStr">
+      <c r="I29" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="J29" s="3" t="n"/>
-      <c r="K29" s="3" t="inlineStr"/>
-      <c r="L29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="inlineStr">
+      <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="inlineStr"/>
+      <c r="L29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
         <is>
           <t>14/01/2024</t>
         </is>
       </c>
-      <c r="R29" s="3" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S29" s="3" t="n"/>
+      <c r="S29" s="2" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>sd78@mail.com</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>PROVOST</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>Vincent</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>240115VP0</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>240115VP1</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="F30" s="3" t="inlineStr">
+      <c r="F30" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G30" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3" t="inlineStr">
+      <c r="G30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
         <is>
           <t>19 avenue du dromadaire</t>
         </is>
       </c>
-      <c r="I30" s="3" t="inlineStr">
+      <c r="I30" s="2" t="inlineStr">
         <is>
           <t>38000</t>
         </is>
       </c>
-      <c r="J30" s="3" t="inlineStr">
+      <c r="J30" s="2" t="inlineStr">
         <is>
           <t>Grenoble</t>
         </is>
       </c>
-      <c r="K30" s="3" t="inlineStr"/>
-      <c r="L30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="3" t="inlineStr">
+      <c r="K30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
         <is>
           <t>15/01/2024</t>
         </is>
       </c>
-      <c r="R30" s="3" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S30" s="3" t="n"/>
+      <c r="S30" s="2" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>oiij78@test.fr</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>PREVOST</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>Arthur</t>
         </is>
       </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>240115AP0</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>240115AP1</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="F31" s="3" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G31" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3" t="inlineStr">
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
         <is>
           <t>20 rue du lapin</t>
         </is>
       </c>
-      <c r="I31" s="3" t="inlineStr">
+      <c r="I31" s="2" t="inlineStr">
         <is>
           <t>38340</t>
         </is>
       </c>
-      <c r="J31" s="3" t="inlineStr">
+      <c r="J31" s="2" t="inlineStr">
         <is>
           <t>Voreppe</t>
         </is>
       </c>
-      <c r="K31" s="3" t="inlineStr"/>
-      <c r="L31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="3" t="inlineStr">
+      <c r="K31" s="2" t="inlineStr"/>
+      <c r="L31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
         <is>
           <t>15/01/2024</t>
         </is>
       </c>
-      <c r="R31" s="3" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S31" s="3" t="n"/>
+      <c r="S31" s="2" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>mooj98@exemple.fr</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>JULIEN</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Marion</t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>240115MJ0</t>
-        </is>
-      </c>
-      <c r="E32" s="3" t="inlineStr">
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>240115MJ1</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="F32" s="3" t="inlineStr">
+      <c r="F32" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G32" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3" t="inlineStr">
+      <c r="G32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
         <is>
           <t>21 rue de la gerbille</t>
         </is>
       </c>
-      <c r="I32" s="3" t="inlineStr">
+      <c r="I32" s="2" t="inlineStr">
         <is>
           <t>38440</t>
         </is>
       </c>
-      <c r="J32" s="3" t="inlineStr">
+      <c r="J32" s="2" t="inlineStr">
         <is>
           <t>ARTAS</t>
         </is>
       </c>
-      <c r="K32" s="3" t="inlineStr"/>
-      <c r="L32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3" t="inlineStr">
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
         <is>
           <t>15/01/2024</t>
         </is>
       </c>
-      <c r="R32" s="3" t="inlineStr">
+      <c r="R32" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S32" s="3" t="n"/>
+      <c r="S32" s="2" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>zeze4@exemple.fr</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>SOLOGNOT</t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Solange</t>
         </is>
       </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>240116SS0</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="inlineStr">
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>240116SS1</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F33" s="3" t="n"/>
-      <c r="G33" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3" t="inlineStr">
+      <c r="F33" s="2" t="n"/>
+      <c r="G33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
         <is>
           <t>19 avenue du dromadaire</t>
         </is>
       </c>
-      <c r="I33" s="3" t="inlineStr">
+      <c r="I33" s="2" t="inlineStr">
         <is>
           <t>38560</t>
         </is>
       </c>
-      <c r="J33" s="3" t="inlineStr">
+      <c r="J33" s="2" t="inlineStr">
         <is>
           <t>HAUTE JARRIE</t>
         </is>
       </c>
-      <c r="K33" s="3" t="inlineStr"/>
-      <c r="L33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3" t="inlineStr">
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
         <is>
           <t>16/01/2024</t>
         </is>
       </c>
-      <c r="R33" s="3" t="inlineStr">
+      <c r="R33" s="2" t="inlineStr">
         <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S33" s="3" t="n"/>
+      <c r="S33" s="2" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>ajab55@test.fr</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>AUBERT</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>Audrey</t>
         </is>
       </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>240116AA0</t>
-        </is>
-      </c>
-      <c r="E34" s="3" t="inlineStr">
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>240116AA1</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F34" s="3" t="n"/>
-      <c r="G34" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="3" t="inlineStr">
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
         <is>
           <t>20 rue du lapin</t>
         </is>
       </c>
-      <c r="I34" s="3" t="inlineStr">
+      <c r="I34" s="2" t="inlineStr">
         <is>
           <t>3200</t>
         </is>
       </c>
-      <c r="J34" s="3" t="inlineStr">
+      <c r="J34" s="2" t="inlineStr">
         <is>
           <t>VICHY</t>
         </is>
       </c>
-      <c r="K34" s="3" t="inlineStr"/>
-      <c r="L34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="3" t="inlineStr">
+      <c r="K34" s="2" t="inlineStr"/>
+      <c r="L34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
         <is>
           <t>16/01/2024</t>
         </is>
       </c>
-      <c r="R34" s="3" t="inlineStr">
+      <c r="R34" s="2" t="inlineStr">
         <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S34" s="3" t="n"/>
+      <c r="S34" s="2" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>zdzd48@mail.com</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>RENAULT</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>Roméo</t>
         </is>
       </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>240116RR0</t>
-        </is>
-      </c>
-      <c r="E35" s="3" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>240116RR1</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F35" s="3" t="n"/>
-      <c r="G35" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="3" t="inlineStr">
+      <c r="F35" s="2" t="n"/>
+      <c r="G35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>21 rue de la gerbille</t>
         </is>
       </c>
-      <c r="I35" s="3" t="inlineStr">
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>38340</t>
         </is>
       </c>
-      <c r="J35" s="3" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>Le Chevalon de Voreppe</t>
         </is>
       </c>
-      <c r="K35" s="3" t="inlineStr"/>
-      <c r="L35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
         <is>
           <t>16/01/2024</t>
         </is>
       </c>
-      <c r="R35" s="3" t="inlineStr">
+      <c r="R35" s="2" t="inlineStr">
         <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S35" s="3" t="n"/>
+      <c r="S35" s="2" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>jsjs65@exemple.fr</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>MAURICE</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Matilda</t>
         </is>
       </c>
-      <c r="D36" s="3" t="inlineStr">
-        <is>
-          <t>240116MM0</t>
-        </is>
-      </c>
-      <c r="E36" s="3" t="inlineStr">
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>240116MM1</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="F36" s="3" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G36" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="3" t="inlineStr">
+      <c r="G36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
         <is>
           <t>22 rue du zèbre</t>
         </is>
       </c>
-      <c r="I36" s="3" t="inlineStr">
+      <c r="I36" s="2" t="inlineStr">
         <is>
           <t>38350</t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr">
+      <c r="J36" s="2" t="inlineStr">
         <is>
           <t>Nantes en Rattier</t>
         </is>
       </c>
-      <c r="K36" s="3" t="inlineStr"/>
-      <c r="L36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="3" t="inlineStr">
+      <c r="K36" s="2" t="inlineStr"/>
+      <c r="L36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
         <is>
           <t>16/01/2024</t>
         </is>
       </c>
-      <c r="R36" s="3" t="inlineStr">
+      <c r="R36" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S36" s="3" t="n"/>
+      <c r="S36" s="2" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>bbu756@mail.com</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>VINCENT</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>Véronique</t>
         </is>
       </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>240116VV0</t>
-        </is>
-      </c>
-      <c r="E37" s="3" t="inlineStr">
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>240116VV1</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="F37" s="3" t="inlineStr">
+      <c r="F37" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G37" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="3" t="inlineStr">
+      <c r="G37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
         <is>
           <t>23 rue de la gerbille</t>
         </is>
       </c>
-      <c r="I37" s="3" t="inlineStr">
+      <c r="I37" s="2" t="inlineStr">
         <is>
           <t>38600</t>
         </is>
       </c>
-      <c r="J37" s="3" t="inlineStr">
+      <c r="J37" s="2" t="inlineStr">
         <is>
           <t>fontaine</t>
         </is>
       </c>
-      <c r="K37" s="3" t="inlineStr"/>
-      <c r="L37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="3" t="inlineStr">
+      <c r="K37" s="2" t="inlineStr"/>
+      <c r="L37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
         <is>
           <t>16/01/2024</t>
         </is>
       </c>
-      <c r="R37" s="3" t="inlineStr">
+      <c r="R37" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S37" s="3" t="n"/>
+      <c r="S37" s="2" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>bbhs65@test.fr</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>BOULANGER</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>Ludivine</t>
         </is>
       </c>
-      <c r="D38" s="3" t="inlineStr">
-        <is>
-          <t>240116LB0</t>
-        </is>
-      </c>
-      <c r="E38" s="3" t="inlineStr">
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>240116LB1</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="F38" s="3" t="inlineStr">
+      <c r="F38" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G38" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="3" t="inlineStr">
+      <c r="G38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
         <is>
           <t>24 allée des lagomorphes</t>
         </is>
       </c>
-      <c r="I38" s="3" t="inlineStr">
+      <c r="I38" s="2" t="inlineStr">
         <is>
           <t>38640</t>
         </is>
       </c>
-      <c r="J38" s="3" t="inlineStr">
+      <c r="J38" s="2" t="inlineStr">
         <is>
           <t>CLAIX</t>
         </is>
       </c>
-      <c r="K38" s="3" t="inlineStr"/>
-      <c r="L38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="3" t="inlineStr">
+      <c r="K38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
         <is>
           <t>16/01/2024</t>
         </is>
       </c>
-      <c r="R38" s="3" t="inlineStr">
+      <c r="R38" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S38" s="3" t="n"/>
+      <c r="S38" s="2" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>sqdsqf4@exemple.fr</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>BLONDEL</t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>Noémie</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>240117NB0</t>
-        </is>
-      </c>
-      <c r="E39" s="3" t="inlineStr">
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>240117NB1</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F39" s="3" t="n"/>
-      <c r="G39" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="3" t="inlineStr">
+      <c r="F39" s="2" t="n"/>
+      <c r="G39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
         <is>
           <t>22 rue du zèbre</t>
         </is>
       </c>
-      <c r="I39" s="3" t="inlineStr">
+      <c r="I39" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="J39" s="3" t="n"/>
-      <c r="K39" s="3" t="inlineStr"/>
-      <c r="L39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="3" t="inlineStr">
+      <c r="J39" s="2" t="n"/>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
         <is>
           <t>17/01/2024</t>
         </is>
       </c>
-      <c r="R39" s="3" t="inlineStr">
+      <c r="R39" s="2" t="inlineStr">
         <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S39" s="3" t="n"/>
+      <c r="S39" s="2" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>zopekzoek48@test.fr</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>BARRAU</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>Sam</t>
         </is>
       </c>
-      <c r="D40" s="3" t="inlineStr">
-        <is>
-          <t>240117SB0</t>
-        </is>
-      </c>
-      <c r="E40" s="3" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>240117SB1</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F40" s="3" t="n"/>
-      <c r="G40" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="3" t="inlineStr">
+      <c r="F40" s="2" t="n"/>
+      <c r="G40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
         <is>
           <t>23 rue de la gerbille</t>
         </is>
       </c>
-      <c r="I40" s="3" t="inlineStr">
+      <c r="I40" s="2" t="inlineStr">
         <is>
           <t>38450</t>
         </is>
       </c>
-      <c r="J40" s="3" t="inlineStr">
+      <c r="J40" s="2" t="inlineStr">
         <is>
           <t>Vif</t>
         </is>
       </c>
-      <c r="K40" s="3" t="inlineStr"/>
-      <c r="L40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="3" t="inlineStr">
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
         <is>
           <t>17/01/2024</t>
         </is>
       </c>
-      <c r="R40" s="3" t="inlineStr">
+      <c r="R40" s="2" t="inlineStr">
         <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S40" s="3" t="n"/>
+      <c r="S40" s="2" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>hdhc8@exemple.fr</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>PASTEUR</t>
         </is>
       </c>
-      <c r="C41" s="3" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>Thérèse</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr">
-        <is>
-          <t>240118TP0</t>
-        </is>
-      </c>
-      <c r="E41" s="3" t="inlineStr">
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>240118TP1</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="F41" s="3" t="inlineStr">
+      <c r="F41" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G41" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="3" t="inlineStr">
+      <c r="G41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
         <is>
           <t>25 rue du capybara</t>
         </is>
       </c>
-      <c r="I41" s="3" t="inlineStr">
+      <c r="I41" s="2" t="inlineStr">
         <is>
           <t>38600</t>
         </is>
       </c>
-      <c r="J41" s="3" t="inlineStr">
+      <c r="J41" s="2" t="inlineStr">
         <is>
           <t>Fontaine</t>
         </is>
       </c>
-      <c r="K41" s="3" t="inlineStr"/>
-      <c r="L41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3" t="inlineStr">
+      <c r="K41" s="2" t="inlineStr"/>
+      <c r="L41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
         <is>
           <t>18/01/2024</t>
         </is>
       </c>
-      <c r="R41" s="3" t="inlineStr">
+      <c r="R41" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S41" s="3" t="n"/>
+      <c r="S41" s="2" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>jnjsd7@test.fr</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>PASTIER</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>Jean-pierre</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr">
-        <is>
-          <t>240105JP0;240119JP0</t>
-        </is>
-      </c>
-      <c r="E42" s="3" t="inlineStr">
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>240105JP1;240119JP1</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
         <is>
           <t>DON-ADH</t>
         </is>
       </c>
-      <c r="F42" s="3" t="n"/>
-      <c r="G42" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="3" t="inlineStr">
+      <c r="F42" s="2" t="n"/>
+      <c r="G42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
         <is>
           <t>26 avenue du dromadaire</t>
         </is>
       </c>
-      <c r="I42" s="3" t="inlineStr">
+      <c r="I42" s="2" t="inlineStr">
         <is>
           <t>73700</t>
         </is>
       </c>
-      <c r="J42" s="3" t="inlineStr">
+      <c r="J42" s="2" t="inlineStr">
         <is>
           <t>SEEZ</t>
         </is>
       </c>
-      <c r="K42" s="3" t="inlineStr"/>
-      <c r="L42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3" t="inlineStr">
+      <c r="K42" s="2" t="inlineStr"/>
+      <c r="L42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
         <is>
           <t>19/01/2024</t>
         </is>
       </c>
-      <c r="R42" s="3" t="inlineStr">
+      <c r="R42" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S42" s="3" t="n"/>
+      <c r="S42" s="2" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>lpalaze4@mail.com</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>MARTINEAU</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Bérangère</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
-          <t>240119BM0</t>
-        </is>
-      </c>
-      <c r="E43" s="3" t="inlineStr">
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>240119BM1</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F43" s="3" t="n"/>
-      <c r="G43" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="3" t="inlineStr">
+      <c r="F43" s="2" t="n"/>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
         <is>
           <t>24 allée des lagomorphes</t>
         </is>
       </c>
-      <c r="I43" s="3" t="inlineStr">
+      <c r="I43" s="2" t="inlineStr">
         <is>
           <t>38000</t>
         </is>
       </c>
-      <c r="J43" s="3" t="inlineStr">
+      <c r="J43" s="2" t="inlineStr">
         <is>
           <t>Grenoble</t>
         </is>
       </c>
-      <c r="K43" s="3" t="inlineStr"/>
-      <c r="L43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3" t="inlineStr">
+      <c r="K43" s="2" t="inlineStr"/>
+      <c r="L43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
         <is>
           <t>19/01/2024</t>
         </is>
       </c>
-      <c r="R43" s="3" t="inlineStr">
+      <c r="R43" s="2" t="inlineStr">
         <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S43" s="3" t="n"/>
+      <c r="S43" s="2" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>azazd18@mail.com</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>JACQUET</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>Jacques</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>240120JJ0</t>
-        </is>
-      </c>
-      <c r="E44" s="3" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>240120JJ1</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F44" s="3" t="n"/>
-      <c r="G44" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="3" t="inlineStr">
+      <c r="F44" s="2" t="n"/>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
         <is>
           <t>25 rue du capybara</t>
         </is>
       </c>
-      <c r="I44" s="3" t="inlineStr">
+      <c r="I44" s="2" t="inlineStr">
         <is>
           <t>38110</t>
         </is>
       </c>
-      <c r="J44" s="3" t="inlineStr">
+      <c r="J44" s="2" t="inlineStr">
         <is>
           <t>La Chapelle de la tour</t>
         </is>
       </c>
-      <c r="K44" s="3" t="inlineStr"/>
-      <c r="L44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3" t="inlineStr">
+      <c r="K44" s="2" t="inlineStr"/>
+      <c r="L44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
         <is>
           <t>20/01/2024</t>
         </is>
       </c>
-      <c r="R44" s="3" t="inlineStr">
+      <c r="R44" s="2" t="inlineStr">
         <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S44" s="3" t="n"/>
+      <c r="S44" s="2" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="inlineStr">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>fbb5@mail.com</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>DIAZ</t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>Diana</t>
         </is>
       </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>240120DD0</t>
-        </is>
-      </c>
-      <c r="E45" s="3" t="inlineStr">
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>240120DD1</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F45" s="3" t="n"/>
-      <c r="G45" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="3" t="inlineStr">
+      <c r="F45" s="2" t="n"/>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
         <is>
           <t>28 allée des lagomorphes</t>
         </is>
       </c>
-      <c r="I45" s="3" t="inlineStr">
+      <c r="I45" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="J45" s="3" t="n"/>
-      <c r="K45" s="3" t="inlineStr"/>
-      <c r="L45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3" t="inlineStr">
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="inlineStr"/>
+      <c r="L45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2" t="inlineStr">
         <is>
           <t>20/01/2024</t>
         </is>
       </c>
-      <c r="R45" s="3" t="inlineStr">
+      <c r="R45" s="2" t="inlineStr">
         <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S45" s="3" t="n"/>
+      <c r="S45" s="2" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="A46" s="2" t="inlineStr">
         <is>
           <t>jbjsbd8@exemple.fr</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>RUCHER</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>Francis</t>
         </is>
       </c>
-      <c r="D46" s="3" t="inlineStr">
-        <is>
-          <t>240122FR0</t>
-        </is>
-      </c>
-      <c r="E46" s="3" t="inlineStr">
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>240122FR1</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="F46" s="3" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G46" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="3" t="inlineStr">
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
         <is>
           <t>27 rue du lapin</t>
         </is>
       </c>
-      <c r="I46" s="3" t="inlineStr">
+      <c r="I46" s="2" t="inlineStr">
         <is>
           <t>38920</t>
         </is>
       </c>
-      <c r="J46" s="3" t="inlineStr">
+      <c r="J46" s="2" t="inlineStr">
         <is>
           <t>Crolles</t>
         </is>
       </c>
-      <c r="K46" s="3" t="inlineStr"/>
-      <c r="L46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3" t="inlineStr">
+      <c r="K46" s="2" t="inlineStr"/>
+      <c r="L46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
         <is>
           <t>22/01/2024</t>
         </is>
       </c>
-      <c r="R46" s="3" t="inlineStr">
+      <c r="R46" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S46" s="3" t="n"/>
+      <c r="S46" s="2" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>sjdbj786@exemple.fr</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>TISON</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="C47" s="2" t="inlineStr">
         <is>
           <t>Gisèle</t>
         </is>
       </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>240122GT0</t>
-        </is>
-      </c>
-      <c r="E47" s="3" t="inlineStr">
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>240122GT1</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="F47" s="3" t="inlineStr">
+      <c r="F47" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G47" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" s="3" t="inlineStr">
+      <c r="G47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
         <is>
           <t>28 allée des lagomorphes</t>
         </is>
       </c>
-      <c r="I47" s="3" t="inlineStr">
+      <c r="I47" s="2" t="inlineStr">
         <is>
           <t>38190</t>
         </is>
       </c>
-      <c r="J47" s="3" t="inlineStr">
+      <c r="J47" s="2" t="inlineStr">
         <is>
           <t>LAVAL</t>
         </is>
       </c>
-      <c r="K47" s="3" t="inlineStr"/>
-      <c r="L47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3" t="inlineStr">
+      <c r="K47" s="2" t="inlineStr"/>
+      <c r="L47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2" t="inlineStr">
         <is>
           <t>22/01/2024</t>
         </is>
       </c>
-      <c r="R47" s="3" t="inlineStr">
+      <c r="R47" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S47" s="3" t="n"/>
+      <c r="S47" s="2" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>bhsd112@test.fr</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>TRESSEAU</t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Yves</t>
         </is>
       </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>240122YT0</t>
-        </is>
-      </c>
-      <c r="E48" s="3" t="inlineStr">
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>240122YT1</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="F48" s="3" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G48" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="3" t="inlineStr">
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
         <is>
           <t>29 rue du zèbre</t>
         </is>
       </c>
-      <c r="I48" s="3" t="inlineStr">
+      <c r="I48" s="2" t="inlineStr">
         <is>
           <t>38360</t>
         </is>
       </c>
-      <c r="J48" s="3" t="inlineStr">
+      <c r="J48" s="2" t="inlineStr">
         <is>
           <t>Noyarey</t>
         </is>
       </c>
-      <c r="K48" s="3" t="inlineStr"/>
-      <c r="L48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3" t="inlineStr">
+      <c r="K48" s="2" t="inlineStr"/>
+      <c r="L48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2" t="inlineStr">
         <is>
           <t>22/01/2024</t>
         </is>
       </c>
-      <c r="R48" s="3" t="inlineStr">
+      <c r="R48" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S48" s="3" t="n"/>
+      <c r="S48" s="2" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>jij134@exemple.fr</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>MORGAN</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Gilles</t>
         </is>
       </c>
-      <c r="D49" s="3" t="inlineStr">
-        <is>
-          <t>240123GM0</t>
-        </is>
-      </c>
-      <c r="E49" s="3" t="inlineStr">
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>240123GM1</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="F49" s="3" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G49" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="3" t="inlineStr">
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
         <is>
           <t>30 rue du lapin</t>
         </is>
       </c>
-      <c r="I49" s="3" t="inlineStr">
+      <c r="I49" s="2" t="inlineStr">
         <is>
           <t>38600</t>
         </is>
       </c>
-      <c r="J49" s="3" t="inlineStr">
+      <c r="J49" s="2" t="inlineStr">
         <is>
           <t>FONTAINE</t>
         </is>
       </c>
-      <c r="K49" s="3" t="inlineStr"/>
-      <c r="L49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3" t="inlineStr">
+      <c r="K49" s="2" t="inlineStr"/>
+      <c r="L49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2" t="inlineStr">
         <is>
           <t>23/01/2024</t>
         </is>
       </c>
-      <c r="R49" s="3" t="inlineStr">
+      <c r="R49" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S49" s="3" t="n"/>
+      <c r="S49" s="2" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="inlineStr">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>hu7651@test.fr</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>LECLERC</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>Léa</t>
         </is>
       </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>240123LL0</t>
-        </is>
-      </c>
-      <c r="E50" s="3" t="inlineStr">
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>240123LL1</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="F50" s="3" t="inlineStr">
+      <c r="F50" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G50" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="3" t="inlineStr">
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
         <is>
           <t>31 rue de la gerbille</t>
         </is>
       </c>
-      <c r="I50" s="3" t="inlineStr">
+      <c r="I50" s="2" t="inlineStr">
         <is>
           <t>38610</t>
         </is>
       </c>
-      <c r="J50" s="3" t="inlineStr">
+      <c r="J50" s="2" t="inlineStr">
         <is>
           <t>Gières</t>
         </is>
       </c>
-      <c r="K50" s="3" t="inlineStr"/>
-      <c r="L50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="3" t="inlineStr">
+      <c r="K50" s="2" t="inlineStr"/>
+      <c r="L50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2" t="inlineStr">
         <is>
           <t>23/01/2024</t>
         </is>
       </c>
-      <c r="R50" s="3" t="inlineStr">
+      <c r="R50" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S50" s="3" t="n"/>
+      <c r="S50" s="2" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="inlineStr">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>apn514@mail.com</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>PARASOL</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Nathalie</t>
         </is>
       </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>240123NP0</t>
-        </is>
-      </c>
-      <c r="E51" s="3" t="inlineStr">
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>240123NP1</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="F51" s="3" t="inlineStr">
+      <c r="F51" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G51" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="3" t="inlineStr">
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
         <is>
           <t>39 rue de la gerbille</t>
         </is>
       </c>
-      <c r="I51" s="3" t="inlineStr">
+      <c r="I51" s="2" t="inlineStr">
         <is>
           <t>38000</t>
         </is>
       </c>
-      <c r="J51" s="3" t="inlineStr">
+      <c r="J51" s="2" t="inlineStr">
         <is>
           <t>GRENOBLE</t>
         </is>
       </c>
-      <c r="K51" s="3" t="inlineStr"/>
-      <c r="L51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="3" t="inlineStr">
+      <c r="K51" s="2" t="inlineStr"/>
+      <c r="L51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
         <is>
           <t>23/01/2024</t>
         </is>
       </c>
-      <c r="R51" s="3" t="inlineStr">
+      <c r="R51" s="2" t="inlineStr">
         <is>
           <t>Espèce</t>
         </is>
       </c>
-      <c r="S51" s="3" t="n"/>
+      <c r="S51" s="2" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="inlineStr">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>gn267@test.fr</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>GAY</t>
         </is>
       </c>
-      <c r="C52" s="3" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Noël</t>
         </is>
       </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
-          <t>240124NG0</t>
-        </is>
-      </c>
-      <c r="E52" s="3" t="inlineStr">
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>240124NG1</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F52" s="3" t="n"/>
-      <c r="G52" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="3" t="inlineStr">
+      <c r="F52" s="2" t="n"/>
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
         <is>
           <t>1 rue du lapin</t>
         </is>
       </c>
-      <c r="I52" s="3" t="inlineStr">
+      <c r="I52" s="2" t="inlineStr">
         <is>
           <t>38240</t>
         </is>
       </c>
-      <c r="J52" s="3" t="inlineStr">
+      <c r="J52" s="2" t="inlineStr">
         <is>
           <t>MEYLANI</t>
         </is>
       </c>
-      <c r="K52" s="3" t="inlineStr"/>
-      <c r="L52" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3" t="inlineStr">
+      <c r="K52" s="2" t="inlineStr"/>
+      <c r="L52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
         <is>
           <t>24/01/2024</t>
         </is>
       </c>
-      <c r="R52" s="3" t="inlineStr">
+      <c r="R52" s="2" t="inlineStr">
         <is>
           <t>helloAsso</t>
         </is>
       </c>
-      <c r="S52" s="3" t="n"/>
+      <c r="S52" s="2" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="inlineStr">
+      <c r="A53" s="2" t="inlineStr">
         <is>
           <t>12djd@mail.com</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>SOLOGNOT</t>
         </is>
       </c>
-      <c r="C53" s="3" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>Léo</t>
         </is>
       </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>240124LS0</t>
-        </is>
-      </c>
-      <c r="E53" s="3" t="inlineStr">
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>240124LS1</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="F53" s="3" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G53" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="3" t="inlineStr">
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
         <is>
           <t>32 rue du zèbre</t>
         </is>
       </c>
-      <c r="I53" s="3" t="inlineStr">
+      <c r="I53" s="2" t="inlineStr">
         <is>
           <t>69230</t>
         </is>
       </c>
-      <c r="J53" s="3" t="inlineStr">
+      <c r="J53" s="2" t="inlineStr">
         <is>
           <t>SAINT-GENIS-LAVAL</t>
         </is>
       </c>
-      <c r="K53" s="3" t="inlineStr"/>
-      <c r="L53" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="3" t="inlineStr">
+      <c r="K53" s="2" t="inlineStr"/>
+      <c r="L53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="2" t="inlineStr">
         <is>
           <t>24/01/2024</t>
         </is>
       </c>
-      <c r="R53" s="3" t="inlineStr">
+      <c r="R53" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S53" s="3" t="n"/>
+      <c r="S53" s="2" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>art134@mail.com</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>NORMAL</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Patrice</t>
         </is>
       </c>
-      <c r="D54" s="3" t="inlineStr">
-        <is>
-          <t>240105PN0;240126PN0</t>
-        </is>
-      </c>
-      <c r="E54" s="3" t="inlineStr">
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>240105PN1;240126PN1</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>DON-ADH</t>
         </is>
       </c>
-      <c r="F54" s="3" t="n"/>
-      <c r="G54" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="3" t="inlineStr">
+      <c r="F54" s="2" t="n"/>
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
         <is>
           <t>34 rue du lapin</t>
         </is>
       </c>
-      <c r="I54" s="3" t="inlineStr">
+      <c r="I54" s="2" t="inlineStr">
         <is>
           <t>38120</t>
         </is>
       </c>
-      <c r="J54" s="3" t="inlineStr">
+      <c r="J54" s="2" t="inlineStr">
         <is>
           <t>Saint-Égrève</t>
         </is>
       </c>
-      <c r="K54" s="3" t="inlineStr"/>
-      <c r="L54" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3" t="inlineStr">
+      <c r="K54" s="2" t="inlineStr"/>
+      <c r="L54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
         <is>
           <t>26/01/2024</t>
         </is>
       </c>
-      <c r="R54" s="3" t="inlineStr">
+      <c r="R54" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S54" s="3" t="n"/>
+      <c r="S54" s="2" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="inlineStr">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>091ssj@exemple.fr</t>
         </is>
       </c>
-      <c r="B55" s="3" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>ZANZIBAR</t>
         </is>
       </c>
-      <c r="C55" s="3" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>Maurice</t>
         </is>
       </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>240126MZ0</t>
-        </is>
-      </c>
-      <c r="E55" s="3" t="inlineStr">
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>240126MZ1</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="F55" s="3" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G55" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="3" t="inlineStr">
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
         <is>
           <t>33 rue de la gerbille</t>
         </is>
       </c>
-      <c r="I55" s="3" t="inlineStr">
+      <c r="I55" s="2" t="inlineStr">
         <is>
           <t>38110</t>
         </is>
       </c>
-      <c r="J55" s="3" t="inlineStr">
+      <c r="J55" s="2" t="inlineStr">
         <is>
           <t>MONTAGNIEU</t>
         </is>
       </c>
-      <c r="K55" s="3" t="inlineStr"/>
-      <c r="L55" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="3" t="inlineStr">
+      <c r="K55" s="2" t="inlineStr"/>
+      <c r="L55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2" t="inlineStr">
         <is>
           <t>26/01/2024</t>
         </is>
       </c>
-      <c r="R55" s="3" t="inlineStr">
+      <c r="R55" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S55" s="3" t="n"/>
+      <c r="S55" s="2" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="inlineStr">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>ea7@test.fr</t>
         </is>
       </c>
-      <c r="B56" s="3" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>LESAGE</t>
         </is>
       </c>
-      <c r="C56" s="3" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>Léo</t>
         </is>
       </c>
-      <c r="D56" s="3" t="inlineStr">
-        <is>
-          <t>240127LL0</t>
-        </is>
-      </c>
-      <c r="E56" s="3" t="inlineStr">
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>240127LL1</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F56" s="3" t="n"/>
-      <c r="G56" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="3" t="inlineStr">
+      <c r="F56" s="2" t="n"/>
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
         <is>
           <t>29 rue du zèbre</t>
         </is>
       </c>
-      <c r="I56" s="3" t="inlineStr">
+      <c r="I56" s="2" t="inlineStr">
         <is>
           <t>30240</t>
         </is>
       </c>
-      <c r="J56" s="3" t="inlineStr">
+      <c r="J56" s="2" t="inlineStr">
         <is>
           <t>Le Grau-du-Roi</t>
         </is>
       </c>
-      <c r="K56" s="3" t="inlineStr"/>
-      <c r="L56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="3" t="inlineStr">
+      <c r="K56" s="2" t="inlineStr"/>
+      <c r="L56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2" t="inlineStr">
         <is>
           <t>27/01/2024</t>
         </is>
       </c>
-      <c r="R56" s="3" t="inlineStr">
+      <c r="R56" s="2" t="inlineStr">
         <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S56" s="3" t="n"/>
+      <c r="S56" s="2" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="inlineStr">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>zdeqsooj98@exemple.fr</t>
         </is>
       </c>
-      <c r="B57" s="3" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>WEBER</t>
         </is>
       </c>
-      <c r="C57" s="3" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>Therese</t>
         </is>
       </c>
-      <c r="D57" s="3" t="inlineStr">
-        <is>
-          <t>240129TW0</t>
-        </is>
-      </c>
-      <c r="E57" s="3" t="inlineStr">
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>240129TW1</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F57" s="3" t="n"/>
-      <c r="G57" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="3" t="inlineStr">
+      <c r="F57" s="2" t="n"/>
+      <c r="G57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
         <is>
           <t>33 rue de la gerbille</t>
         </is>
       </c>
-      <c r="I57" s="3" t="inlineStr">
+      <c r="I57" s="2" t="inlineStr">
         <is>
           <t>38390</t>
         </is>
       </c>
-      <c r="J57" s="3" t="inlineStr">
+      <c r="J57" s="2" t="inlineStr">
         <is>
           <t>VERTRIEU</t>
         </is>
       </c>
-      <c r="K57" s="3" t="inlineStr"/>
-      <c r="L57" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3" t="inlineStr">
+      <c r="K57" s="2" t="inlineStr"/>
+      <c r="L57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2" t="inlineStr">
         <is>
           <t>29/01/2024</t>
         </is>
       </c>
-      <c r="R57" s="3" t="inlineStr">
+      <c r="R57" s="2" t="inlineStr">
         <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S57" s="3" t="n"/>
+      <c r="S57" s="2" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>112ssss@mail.com</t>
         </is>
       </c>
-      <c r="B58" s="3" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>FROID</t>
         </is>
       </c>
-      <c r="C58" s="3" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>Patricia</t>
         </is>
       </c>
-      <c r="D58" s="3" t="inlineStr">
-        <is>
-          <t>240129PF0</t>
-        </is>
-      </c>
-      <c r="E58" s="3" t="inlineStr">
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>240129PF1</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="F58" s="3" t="inlineStr">
+      <c r="F58" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G58" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="3" t="inlineStr">
+      <c r="G58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
         <is>
           <t>35 avenue du dromadaire</t>
         </is>
       </c>
-      <c r="I58" s="3" t="inlineStr">
+      <c r="I58" s="2" t="inlineStr">
         <is>
           <t>38150</t>
         </is>
       </c>
-      <c r="J58" s="3" t="inlineStr">
+      <c r="J58" s="2" t="inlineStr">
         <is>
           <t>Salaise-sur-Sanne 38150</t>
         </is>
       </c>
-      <c r="K58" s="3" t="inlineStr"/>
-      <c r="L58" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3" t="inlineStr">
+      <c r="K58" s="2" t="inlineStr"/>
+      <c r="L58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2" t="inlineStr">
         <is>
           <t>29/01/2024</t>
         </is>
       </c>
-      <c r="R58" s="3" t="inlineStr">
+      <c r="R58" s="2" t="inlineStr">
         <is>
           <t>Chèque</t>
         </is>
       </c>
-      <c r="S58" s="3" t="n"/>
+      <c r="S58" s="2" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="inlineStr">
+      <c r="A59" s="2" t="inlineStr">
         <is>
           <t>uhu761@test.fr</t>
         </is>
       </c>
-      <c r="B59" s="3" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>CHAUD</t>
         </is>
       </c>
-      <c r="C59" s="3" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>Henri</t>
         </is>
       </c>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t>240129HC0</t>
-        </is>
-      </c>
-      <c r="E59" s="3" t="inlineStr">
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>240129HC1</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="F59" s="3" t="inlineStr">
+      <c r="F59" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G59" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="3" t="inlineStr">
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
         <is>
           <t>36 rue du hamster</t>
         </is>
       </c>
-      <c r="I59" s="3" t="inlineStr">
+      <c r="I59" s="2" t="inlineStr">
         <is>
           <t>38300</t>
         </is>
       </c>
-      <c r="J59" s="3" t="inlineStr">
+      <c r="J59" s="2" t="inlineStr">
         <is>
           <t>BOURGOIN JALLIEU</t>
         </is>
       </c>
-      <c r="K59" s="3" t="inlineStr"/>
-      <c r="L59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3" t="inlineStr">
+      <c r="K59" s="2" t="inlineStr"/>
+      <c r="L59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="2" t="inlineStr">
         <is>
           <t>29/01/2024</t>
         </is>
       </c>
-      <c r="R59" s="3" t="inlineStr">
+      <c r="R59" s="2" t="inlineStr">
         <is>
           <t>Chèque</t>
         </is>
       </c>
-      <c r="S59" s="3" t="n"/>
+      <c r="S59" s="2" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="inlineStr">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>azaz541@test.fr</t>
         </is>
       </c>
-      <c r="B60" s="3" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>TIÈDE</t>
         </is>
       </c>
-      <c r="C60" s="3" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>Alice</t>
         </is>
       </c>
-      <c r="D60" s="3" t="inlineStr">
-        <is>
-          <t>240129AT0</t>
-        </is>
-      </c>
-      <c r="E60" s="3" t="inlineStr">
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>240129AT1</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
         <is>
           <t>RA</t>
         </is>
       </c>
-      <c r="F60" s="3" t="inlineStr">
+      <c r="F60" s="2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G60" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="3" t="inlineStr">
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
         <is>
           <t>37 rue du lapin</t>
         </is>
       </c>
-      <c r="I60" s="3" t="inlineStr">
+      <c r="I60" s="2" t="inlineStr">
         <is>
           <t>38610</t>
         </is>
       </c>
-      <c r="J60" s="3" t="inlineStr">
+      <c r="J60" s="2" t="inlineStr">
         <is>
           <t>Gieres</t>
         </is>
       </c>
-      <c r="K60" s="3" t="inlineStr"/>
-      <c r="L60" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3" t="inlineStr">
+      <c r="K60" s="2" t="inlineStr"/>
+      <c r="L60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="2" t="inlineStr">
         <is>
           <t>29/01/2024</t>
         </is>
       </c>
-      <c r="R60" s="3" t="inlineStr">
+      <c r="R60" s="2" t="inlineStr">
         <is>
           <t>Chèque</t>
         </is>
       </c>
-      <c r="S60" s="3" t="n"/>
+      <c r="S60" s="2" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>zdqd52@exemple.fr</t>
         </is>
       </c>
-      <c r="B61" s="3" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>KOWALSKI</t>
         </is>
       </c>
-      <c r="C61" s="3" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Francis</t>
         </is>
       </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t>240131FK0</t>
-        </is>
-      </c>
-      <c r="E61" s="3" t="inlineStr">
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>240131FK1</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F61" s="3" t="n"/>
-      <c r="G61" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="3" t="inlineStr">
+      <c r="F61" s="2" t="n"/>
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
         <is>
           <t>38 rue du capybara</t>
         </is>
       </c>
-      <c r="I61" s="3" t="inlineStr">
+      <c r="I61" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="J61" s="3" t="n"/>
-      <c r="K61" s="3" t="inlineStr"/>
-      <c r="L61" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3" t="inlineStr">
+      <c r="J61" s="2" t="n"/>
+      <c r="K61" s="2" t="inlineStr"/>
+      <c r="L61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="2" t="inlineStr">
         <is>
           <t>31/01/2024</t>
         </is>
       </c>
-      <c r="R61" s="3" t="inlineStr">
+      <c r="R61" s="2" t="inlineStr">
         <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S61" s="3" t="n"/>
+      <c r="S61" s="2" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="inlineStr">
+      <c r="A62" s="2" t="inlineStr">
         <is>
           <t>lmm4@mail.com</t>
         </is>
       </c>
-      <c r="B62" s="3" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>BOURDON</t>
         </is>
       </c>
-      <c r="C62" s="3" t="inlineStr">
+      <c r="C62" s="2" t="inlineStr">
         <is>
           <t>Julien</t>
         </is>
       </c>
-      <c r="D62" s="3" t="inlineStr">
-        <is>
-          <t>240131JB0</t>
-        </is>
-      </c>
-      <c r="E62" s="3" t="inlineStr">
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>240131JB1</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F62" s="3" t="n"/>
-      <c r="G62" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="3" t="inlineStr">
+      <c r="F62" s="2" t="n"/>
+      <c r="G62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
         <is>
           <t>39 rue de la gerbille</t>
         </is>
       </c>
-      <c r="I62" s="3" t="inlineStr">
+      <c r="I62" s="2" t="inlineStr">
         <is>
           <t>38090</t>
         </is>
       </c>
-      <c r="J62" s="3" t="inlineStr">
+      <c r="J62" s="2" t="inlineStr">
         <is>
           <t>Villefontaine</t>
         </is>
       </c>
-      <c r="K62" s="3" t="inlineStr"/>
-      <c r="L62" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3" t="inlineStr">
+      <c r="K62" s="2" t="inlineStr"/>
+      <c r="L62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="2" t="inlineStr">
         <is>
           <t>31/01/2024</t>
         </is>
       </c>
-      <c r="R62" s="3" t="inlineStr">
+      <c r="R62" s="2" t="inlineStr">
         <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S62" s="3" t="n"/>
+      <c r="S62" s="2" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="inlineStr">
+      <c r="A63" s="2" t="inlineStr">
         <is>
           <t>zse59@exemple.fr</t>
         </is>
       </c>
-      <c r="B63" s="3" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>BOUCHARD</t>
         </is>
       </c>
-      <c r="C63" s="3" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
         <is>
           <t>Victoire</t>
         </is>
       </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
-          <t>240801VB0</t>
-        </is>
-      </c>
-      <c r="E63" s="3" t="inlineStr">
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>240801VB1</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F63" s="3" t="n"/>
-      <c r="G63" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="3" t="inlineStr">
+      <c r="F63" s="2" t="n"/>
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">6 rue des Cockers </t>
         </is>
       </c>
-      <c r="I63" s="3" t="inlineStr">
+      <c r="I63" s="2" t="inlineStr">
         <is>
           <t>8011</t>
         </is>
       </c>
-      <c r="J63" s="3" t="inlineStr">
+      <c r="J63" s="2" t="inlineStr">
         <is>
           <t>Gre-sur-Ciel</t>
         </is>
       </c>
-      <c r="K63" s="3" t="inlineStr">
+      <c r="K63" s="2" t="inlineStr">
         <is>
           <t>707070707</t>
         </is>
       </c>
-      <c r="L63" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="3" t="inlineStr">
+      <c r="L63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="2" t="inlineStr">
         <is>
           <t>01/08/2024</t>
         </is>
       </c>
-      <c r="R63" s="3" t="inlineStr">
+      <c r="R63" s="2" t="inlineStr">
         <is>
           <t>cb</t>
         </is>
       </c>
-      <c r="S63" s="3" t="n"/>
+      <c r="S63" s="2" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="inlineStr">
+      <c r="A64" s="2" t="inlineStr">
         <is>
           <t>zdeokek@mail.com</t>
         </is>
       </c>
-      <c r="B64" s="3" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>BOULANGER</t>
         </is>
       </c>
-      <c r="C64" s="3" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Victor</t>
         </is>
       </c>
-      <c r="D64" s="3" t="inlineStr">
-        <is>
-          <t>240802VB0</t>
-        </is>
-      </c>
-      <c r="E64" s="3" t="inlineStr">
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>240802VB1</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F64" s="3" t="n"/>
-      <c r="G64" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="3" t="inlineStr">
+      <c r="F64" s="2" t="n"/>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
         <is>
           <t>6 ter Passage du Chat Européen Appt 66</t>
         </is>
       </c>
-      <c r="I64" s="3" t="inlineStr">
+      <c r="I64" s="2" t="inlineStr">
         <is>
           <t>38010</t>
         </is>
       </c>
-      <c r="J64" s="3" t="inlineStr">
+      <c r="J64" s="2" t="inlineStr">
         <is>
           <t>Gre-sur-Isère</t>
         </is>
       </c>
-      <c r="K64" s="3" t="inlineStr">
+      <c r="K64" s="2" t="inlineStr">
         <is>
           <t>606060606</t>
         </is>
       </c>
-      <c r="L64" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="3" t="inlineStr">
+      <c r="L64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="2" t="inlineStr">
         <is>
           <t>02/08/2024</t>
         </is>
       </c>
-      <c r="R64" s="3" t="inlineStr">
+      <c r="R64" s="2" t="inlineStr">
         <is>
           <t>cb</t>
         </is>
       </c>
-      <c r="S64" s="3" t="n"/>
+      <c r="S64" s="2" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="inlineStr">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>vincent.bourdon41@gmail.com</t>
         </is>
       </c>
-      <c r="B65" s="3" t="inlineStr">
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>BOURDON</t>
         </is>
       </c>
-      <c r="C65" s="3" t="inlineStr">
+      <c r="C65" s="2" t="inlineStr">
         <is>
           <t>Vincent</t>
         </is>
       </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t>241001VB0</t>
-        </is>
-      </c>
-      <c r="E65" s="3" t="inlineStr">
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>241001VB2</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F65" s="3" t="n"/>
-      <c r="G65" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" s="3" t="inlineStr">
+      <c r="F65" s="2" t="n"/>
+      <c r="G65" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">6 Allée Aloyzi Kospicki </t>
         </is>
       </c>
-      <c r="I65" s="3" t="inlineStr">
+      <c r="I65" s="2" t="inlineStr">
         <is>
           <t>38000</t>
         </is>
       </c>
-      <c r="J65" s="3" t="inlineStr">
+      <c r="J65" s="2" t="inlineStr">
         <is>
           <t>Grenoble</t>
         </is>
       </c>
-      <c r="K65" s="3" t="inlineStr">
+      <c r="K65" s="2" t="inlineStr">
         <is>
           <t>760576629</t>
         </is>
       </c>
-      <c r="L65" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P65" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="3" t="inlineStr">
+      <c r="L65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="2" t="inlineStr">
         <is>
           <t>01/10/2024</t>
         </is>
       </c>
-      <c r="R65" s="3" t="inlineStr">
+      <c r="R65" s="2" t="inlineStr">
         <is>
           <t>cb</t>
         </is>
       </c>
-      <c r="S65" s="3" t="n"/>
+      <c r="S65" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/donnees/listesAdherents/2024.xlsx
+++ b/donnees/listesAdherents/2024.xlsx
@@ -625,16 +625,16 @@
         <v>0</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="2" t="inlineStr">
         <is>
@@ -698,16 +698,16 @@
         <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="Q3" s="2" t="inlineStr">
         <is>
@@ -771,16 +771,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N5" s="2" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
@@ -917,16 +917,16 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
@@ -990,16 +990,16 @@
         <v>0</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
@@ -1136,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>LE</t>
+          <t>LE BLANC</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Blanc boris</t>
+          <t>Boris</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="N10" s="2" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>0</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="N11" s="2" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
@@ -1351,16 +1351,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
@@ -1424,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>0</v>
+        <v>5.22</v>
       </c>
       <c r="N14" s="2" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>0</v>
+        <v>5.22</v>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
@@ -1566,16 +1566,16 @@
         <v>0</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
@@ -1639,16 +1639,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0</v>
+        <v>36.47</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>0</v>
+        <v>54.47</v>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>0</v>
+        <v>4.68</v>
       </c>
       <c r="N17" s="2" t="n">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>0</v>
+        <v>4.68</v>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
@@ -1785,16 +1785,16 @@
         <v>0</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>0</v>
+        <v>79.5</v>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
@@ -1858,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
@@ -1931,16 +1931,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
@@ -2077,16 +2077,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
@@ -2123,14 +2123,10 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n"/>
       <c r="G23" s="2" t="b">
         <v>1</v>
       </c>
@@ -2154,16 +2150,16 @@
         <v>0</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
@@ -2223,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>0</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="N24" s="2" t="n">
         <v>0</v>
@@ -2232,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>0</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
@@ -2269,14 +2265,10 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n"/>
       <c r="G25" s="2" t="b">
         <v>1</v>
       </c>
@@ -2300,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
@@ -2346,14 +2338,10 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n"/>
       <c r="G26" s="2" t="b">
         <v>1</v>
       </c>
@@ -2377,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
@@ -2450,16 +2438,16 @@
         <v>0</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>0</v>
+        <v>21.19</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>0</v>
+        <v>39.19</v>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
@@ -2523,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>0</v>
+        <v>14.54</v>
       </c>
       <c r="N28" s="2" t="n">
         <v>0</v>
@@ -2532,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>0</v>
+        <v>14.54</v>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
@@ -2592,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>0</v>
+        <v>6.65</v>
       </c>
       <c r="N29" s="2" t="n">
         <v>0</v>
@@ -2601,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>0</v>
+        <v>6.65</v>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
@@ -2638,14 +2626,10 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n"/>
       <c r="G30" s="2" t="b">
         <v>1</v>
       </c>
@@ -2669,16 +2653,16 @@
         <v>0</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
@@ -2715,14 +2699,10 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n"/>
       <c r="G31" s="2" t="b">
         <v>1</v>
       </c>
@@ -2746,16 +2726,16 @@
         <v>0</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
@@ -2792,14 +2772,10 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="n"/>
       <c r="G32" s="2" t="b">
         <v>1</v>
       </c>
@@ -2823,16 +2799,16 @@
         <v>0</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
@@ -2896,16 +2872,16 @@
         <v>0</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
@@ -2969,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>0</v>
+        <v>12.57</v>
       </c>
       <c r="N34" s="2" t="n">
         <v>0</v>
@@ -2978,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>0</v>
+        <v>12.57</v>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
@@ -3042,16 +3018,16 @@
         <v>0</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
@@ -3088,14 +3064,10 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="n"/>
       <c r="G36" s="2" t="b">
         <v>1</v>
       </c>
@@ -3119,16 +3091,16 @@
         <v>0</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
@@ -3165,14 +3137,10 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="n"/>
       <c r="G37" s="2" t="b">
         <v>1</v>
       </c>
@@ -3196,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
@@ -3242,14 +3210,10 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="n"/>
       <c r="G38" s="2" t="b">
         <v>1</v>
       </c>
@@ -3273,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N38" s="2" t="n">
         <v>0</v>
@@ -3282,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
@@ -3342,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>0</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="N39" s="2" t="n">
         <v>0</v>
@@ -3351,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>0</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
@@ -3415,16 +3379,16 @@
         <v>0</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
@@ -3461,14 +3425,10 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="n"/>
       <c r="G41" s="2" t="b">
         <v>1</v>
       </c>
@@ -3492,16 +3452,16 @@
         <v>0</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
@@ -3565,16 +3525,16 @@
         <v>0</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>0</v>
+        <v>501.47</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>0</v>
+        <v>519.47</v>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
@@ -3638,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>0</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="N43" s="2" t="n">
         <v>0</v>
@@ -3647,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>0</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
@@ -3711,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>0</v>
+        <v>4.68</v>
       </c>
       <c r="N44" s="2" t="n">
         <v>0</v>
@@ -3720,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>0</v>
+        <v>4.68</v>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
@@ -3780,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>0</v>
+        <v>1.469999999999999</v>
       </c>
       <c r="P45" s="2" t="n">
-        <v>0</v>
+        <v>19.47</v>
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
@@ -3826,14 +3786,10 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
-        </is>
-      </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="n"/>
       <c r="G46" s="2" t="b">
         <v>1</v>
       </c>
@@ -3857,16 +3813,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
@@ -3903,14 +3859,10 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
-        </is>
-      </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="n"/>
       <c r="G47" s="2" t="b">
         <v>1</v>
       </c>
@@ -3934,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N47" s="2" t="n">
         <v>0</v>
@@ -3943,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
@@ -3980,14 +3932,10 @@
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="n"/>
       <c r="G48" s="2" t="b">
         <v>1</v>
       </c>
@@ -4011,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N48" s="2" t="n">
         <v>0</v>
@@ -4020,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
@@ -4057,14 +4005,10 @@
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="n"/>
       <c r="G49" s="2" t="b">
         <v>1</v>
       </c>
@@ -4088,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N49" s="2" t="n">
         <v>0</v>
@@ -4097,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
@@ -4134,14 +4078,10 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="n"/>
       <c r="G50" s="2" t="b">
         <v>1</v>
       </c>
@@ -4165,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N50" s="2" t="n">
         <v>0</v>
@@ -4174,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
@@ -4211,14 +4151,10 @@
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="n"/>
       <c r="G51" s="2" t="b">
         <v>1</v>
       </c>
@@ -4242,16 +4178,16 @@
         <v>0</v>
       </c>
       <c r="M51" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P51" s="2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q51" s="2" t="inlineStr">
         <is>
@@ -4315,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N52" s="2" t="n">
         <v>0</v>
@@ -4324,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
@@ -4361,14 +4297,10 @@
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="n"/>
       <c r="G53" s="2" t="b">
         <v>1</v>
       </c>
@@ -4392,16 +4324,16 @@
         <v>0</v>
       </c>
       <c r="M53" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P53" s="2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
@@ -4465,16 +4397,16 @@
         <v>0</v>
       </c>
       <c r="M54" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>0</v>
+        <v>21.33</v>
       </c>
       <c r="P54" s="2" t="n">
-        <v>0</v>
+        <v>39.33</v>
       </c>
       <c r="Q54" s="2" t="inlineStr">
         <is>
@@ -4511,14 +4443,10 @@
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="n"/>
       <c r="G55" s="2" t="b">
         <v>1</v>
       </c>
@@ -4542,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N55" s="2" t="n">
         <v>0</v>
@@ -4551,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
@@ -4615,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N56" s="2" t="n">
         <v>0</v>
@@ -4624,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q56" s="2" t="inlineStr">
         <is>
@@ -4688,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="2" t="n">
-        <v>0</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="N57" s="2" t="n">
         <v>0</v>
@@ -4697,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="2" t="n">
-        <v>0</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="Q57" s="2" t="inlineStr">
         <is>
@@ -4734,14 +4662,10 @@
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="n"/>
       <c r="G58" s="2" t="b">
         <v>1</v>
       </c>
@@ -4765,16 +4689,16 @@
         <v>0</v>
       </c>
       <c r="M58" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O58" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P58" s="2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q58" s="2" t="inlineStr">
         <is>
@@ -4811,14 +4735,10 @@
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="n"/>
       <c r="G59" s="2" t="b">
         <v>1</v>
       </c>
@@ -4842,16 +4762,16 @@
         <v>0</v>
       </c>
       <c r="M59" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O59" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P59" s="2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q59" s="2" t="inlineStr">
         <is>
@@ -4888,14 +4808,10 @@
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="n"/>
       <c r="G60" s="2" t="b">
         <v>1</v>
       </c>
@@ -4919,16 +4835,16 @@
         <v>0</v>
       </c>
       <c r="M60" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P60" s="2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q60" s="2" t="inlineStr">
         <is>
@@ -4988,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="2" t="n">
-        <v>0</v>
+        <v>14.54</v>
       </c>
       <c r="N61" s="2" t="n">
         <v>0</v>
@@ -4997,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="2" t="n">
-        <v>0</v>
+        <v>14.54</v>
       </c>
       <c r="Q61" s="2" t="inlineStr">
         <is>
@@ -5061,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N62" s="2" t="n">
         <v>0</v>
@@ -5070,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q62" s="2" t="inlineStr">
         <is>
@@ -5138,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" s="2" t="n">
         <v>0</v>
@@ -5147,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="2" t="inlineStr">
         <is>
@@ -5215,16 +5131,16 @@
         <v>0</v>
       </c>
       <c r="M64" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O64" s="2" t="n">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="P64" s="2" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="Q64" s="2" t="inlineStr">
         <is>
@@ -5256,7 +5172,7 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>241001VB2</t>
+          <t>241001VB1</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
@@ -5292,16 +5208,16 @@
         <v>0</v>
       </c>
       <c r="M65" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N65" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O65" s="2" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="P65" s="2" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="Q65" s="2" t="inlineStr">
         <is>

--- a/donnees/listesAdherents/2024.xlsx
+++ b/donnees/listesAdherents/2024.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,22 +460,23 @@
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="8" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="15" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="10" customWidth="1" min="18" max="18"/>
-    <col width="20" customWidth="1" min="19" max="19"/>
+    <col width="10" customWidth="1" min="19" max="19"/>
+    <col width="20" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -491,7 +492,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Prenom</t>
+          <t>Prénom</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -506,70 +507,75 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Date dernière adhésion</t>
+          <t>Dern. adh.</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Régulier</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Envoi mails</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Code postal</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Ville</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Téléphone</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Montant adhésion payé année n-1</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Montant adhésion année n</t>
+          <t>Adh. 2023</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Montant adhésion année n+1</t>
+          <t>Adh. 2024</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Montant dons année n</t>
+          <t>Adh. 2025</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Total année n</t>
+          <t>Dons 2024</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Dernier paiement</t>
+          <t>Total 2024</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>Dern. paiement</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Dern. moy. paiement</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Remarques</t>
         </is>
@@ -605,48 +611,51 @@
       <c r="G2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>2 rue de la gerbille</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>38260</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>POMMIER DE BEAUREPAIRE</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L2" s="2" t="inlineStr"/>
       <c r="M2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N2" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="Q2" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
+      <c r="R2" s="2" t="inlineStr">
         <is>
           <t>02/01/2024</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="S2" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S2" s="2" t="n"/>
+      <c r="T2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -678,48 +687,51 @@
       <c r="G3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>3 rue du hamster</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="J3" s="2" t="inlineStr">
         <is>
           <t>38410</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="K3" s="2" t="inlineStr">
         <is>
           <t>Saint Martin d'Uriage</t>
         </is>
       </c>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L3" s="2" t="inlineStr"/>
       <c r="M3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N3" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="n">
         <v>532</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="Q3" s="2" t="n">
         <v>550</v>
       </c>
-      <c r="Q3" s="2" t="inlineStr">
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>02/01/2024</t>
         </is>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="S3" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -749,50 +761,53 @@
       </c>
       <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>4 avenue du dromadaire</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>38700</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>La Tronche</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L4" s="2" t="inlineStr"/>
       <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N4" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="Q4" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>02/01/2024</t>
         </is>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S4" s="2" t="n"/>
+      <c r="T4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -824,48 +839,51 @@
       <c r="G5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>1 rue du lapin</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>38240</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>MEYLANI</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L5" s="2" t="inlineStr"/>
       <c r="M5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="N5" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Q5" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>02/01/2024</t>
         </is>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="S5" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S5" s="2" t="n"/>
+      <c r="T5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -895,50 +913,53 @@
       </c>
       <c r="F6" s="2" t="n"/>
       <c r="G6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>5 allée des souris</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>38100</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>Grenoble</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L6" s="2" t="inlineStr"/>
       <c r="M6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N6" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="Q6" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>04/01/2024</t>
         </is>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="S6" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S6" s="2" t="n"/>
+      <c r="T6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -968,50 +989,53 @@
       </c>
       <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>6 rue du capybara</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>26200</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>Montélimar</t>
         </is>
       </c>
-      <c r="K7" s="2" t="inlineStr"/>
-      <c r="L7" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="2" t="inlineStr"/>
       <c r="M7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N7" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="P7" s="2" t="n">
+      <c r="Q7" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="Q7" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>05/01/2024</t>
         </is>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="S7" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S7" s="2" t="n"/>
+      <c r="T7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -1041,50 +1065,53 @@
       </c>
       <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>7 rue du zèbre</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>38660</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>LUMBIN</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L8" s="2" t="inlineStr"/>
       <c r="M8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N8" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="Q8" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>05/01/2024</t>
         </is>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="S8" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S8" s="2" t="n"/>
+      <c r="T8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -1114,70 +1141,73 @@
       </c>
       <c r="F9" s="2" t="n"/>
       <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>8 avenue des rongeurs</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>73200</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>ALBERTVILLE</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L9" s="2" t="inlineStr"/>
       <c r="M9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N9" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="Q9" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="Q9" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>05/01/2024</t>
         </is>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="S9" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S9" s="2" t="n"/>
+      <c r="T9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>jij767@exemple.fr</t>
+          <t>huhhu898@mail.com</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>LE BLANC</t>
+          <t>GERMAIN</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Boris</t>
+          <t>François</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>240105BL1</t>
+          <t>240107FG1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1187,139 +1217,149 @@
       </c>
       <c r="F10" s="2" t="n"/>
       <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>11 rue du lapin</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>12 rue de la gerbille</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>77210</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>Avon</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr"/>
       <c r="M10" s="2" t="n">
-        <v>9.609999999999999</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="O10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>05/01/2024</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>17.5</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>07/01/2024</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S10" s="2" t="n"/>
+      <c r="T10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>huhhu898@mail.com</t>
+          <t>m898j@mail.com</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>GERMAIN</t>
+          <t>LECLERC</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>François</t>
+          <t>William</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>240107FG1</t>
+          <t>240115WL1;240108WL1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>DON-ADH</t>
         </is>
       </c>
       <c r="F11" s="2" t="n"/>
       <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>12 rue de la gerbille</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>77210</t>
+          <t>10 rue du hamster</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>Avon</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38330</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>Saint-Ismier</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr"/>
       <c r="M11" s="2" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>07/01/2024</t>
-        </is>
+        <v>502</v>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>520</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>paypal</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="n"/>
+          <t>08/01/2024</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>m898j@mail.com</t>
+          <t>po009@mail.com</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>LECLERC</t>
+          <t>MEILLEUR</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>Fleurette</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>240115WL1;240108WL1</t>
+          <t>240115FM1;240108FM1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1329,70 +1369,73 @@
       </c>
       <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>10 rue du hamster</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>11 rue du lapin</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>38330</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>Saint-Ismier</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr"/>
-      <c r="L12" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>Saint Nazaire Les Eymes</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr"/>
       <c r="M12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N12" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" s="2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>520</v>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
+        <v>532</v>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>550</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>08/01/2024</t>
         </is>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="S12" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S12" s="2" t="n"/>
+      <c r="T12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>po009@mail.com</t>
+          <t>jdsi87@mail.com</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>MEILLEUR</t>
+          <t>LEBRUN</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Fleurette</t>
+          <t>Alice</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>240115FM1;240108FM1</t>
+          <t>240115AL1;240109AL1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1402,212 +1445,225 @@
       </c>
       <c r="F13" s="2" t="n"/>
       <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>11 rue du lapin</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>38330</t>
+          <t>12 rue de la gerbille</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>Saint Nazaire Les Eymes</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38260</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>Gillonnay</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr"/>
       <c r="M13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N13" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O13" s="2" t="n">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>550</v>
-      </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>08/01/2024</t>
-        </is>
+        <v>52</v>
+      </c>
+      <c r="Q13" s="2" t="n">
+        <v>70</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>09/01/2024</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S13" s="2" t="n"/>
+      <c r="T13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>IIJ8@test.fr</t>
+          <t>98dks@exemple.fr</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>LECLERC</t>
+          <t>ROUSSET</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Fabien</t>
+          <t>Aline</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>240108FL1</t>
+          <t>240114AR1;240103AR1;240109AR1</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>DON-ADH</t>
         </is>
       </c>
       <c r="F14" s="2" t="n"/>
       <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>13 rue du capybara</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="n"/>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>69500</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>Bron</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr"/>
       <c r="M14" s="2" t="n">
-        <v>5.22</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>08/01/2024</t>
-        </is>
+        <v>36.47</v>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <v>54.47</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>paypal</t>
-        </is>
-      </c>
-      <c r="S14" s="2" t="n"/>
+          <t>09/01/2024</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>jdsi87@mail.com</t>
+          <t>kz9@exemple.fr</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>LEBRUN</t>
+          <t>PASTIER</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Olivia</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>240115AL1;240109AL1</t>
+          <t>240109OP1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>DON-ADH</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F15" s="2" t="n"/>
       <c r="G15" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>12 rue de la gerbille</t>
-        </is>
+      <c r="H15" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>38260</t>
+          <t>14 rue du zèbre</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>Gillonnay</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38410</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>Saint Martin d'Uriage</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr"/>
       <c r="M15" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>0</v>
+        <v>4.68</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Q15" s="2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>09/01/2024</t>
         </is>
       </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Virement</t>
-        </is>
-      </c>
-      <c r="S15" s="2" t="n"/>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>98dks@exemple.fr</t>
+          <t>0ddd9@test.fr</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>ROUSSET</t>
+          <t>LESAGE</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Aline</t>
+          <t>Henri</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>240114AR1;240103AR1;240109AR1</t>
+          <t>240116HL1;240108HL1;240110HL1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1617,143 +1673,149 @@
       </c>
       <c r="F16" s="2" t="n"/>
       <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>13 rue du capybara</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>69500</t>
+          <t>9 allée des lagomorphes</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>Bron</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38600</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>Fontaine</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr"/>
       <c r="M16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N16" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O16" s="2" t="n">
-        <v>36.47</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>54.47</v>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>09/01/2024</t>
-        </is>
+        <v>61.5</v>
+      </c>
+      <c r="Q16" s="2" t="n">
+        <v>79.5</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
+          <t>10/01/2024</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S16" s="2" t="n"/>
+      <c r="T16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>kz9@exemple.fr</t>
+          <t>sd87@test.fr</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>PASTIER</t>
+          <t>ROUSSEAU</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Olivia</t>
+          <t>Alexandra</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>240109OP1</t>
+          <t>240107AR1;240110AR1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>DON-ADH</t>
         </is>
       </c>
       <c r="F17" s="2" t="n"/>
       <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>14 rue du zèbre</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>38410</t>
-        </is>
-      </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>Saint Martin d'Uriage</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr"/>
-      <c r="L17" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38760</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>Varces Allières et Risset</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr"/>
       <c r="M17" s="2" t="n">
-        <v>4.68</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>09/01/2024</t>
-        </is>
+        <v>156</v>
+      </c>
+      <c r="Q17" s="2" t="n">
+        <v>174</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>paypal</t>
-        </is>
-      </c>
-      <c r="S17" s="2" t="n"/>
+          <t>10/01/2024</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>0ddd9@test.fr</t>
+          <t>huhu765@mail.com</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>LESAGE</t>
+          <t>RUISSEAU</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Henri</t>
+          <t>Amandine</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>240116HL1;240108HL1;240110HL1</t>
+          <t>240105AR1;240110AR2</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1763,70 +1825,73 @@
       </c>
       <c r="F18" s="2" t="n"/>
       <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>9 allée des lagomorphes</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>38600</t>
+          <t>15 rue de la gerbille</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>Fontaine</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38430</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>MOIRANS</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr"/>
       <c r="M18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N18" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O18" s="2" t="n">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="Q18" s="2" t="inlineStr">
+        <v>82</v>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>10/01/2024</t>
         </is>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="S18" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S18" s="2" t="n"/>
+      <c r="T18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>sd87@test.fr</t>
+          <t>koko8876@exemple.fr</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>ROUSSEAU</t>
+          <t>RIVIÈRE</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Alexandra</t>
+          <t>Amélie</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>240107AR1;240110AR3</t>
+          <t>240102AR1;240110AR3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1836,216 +1901,225 @@
       </c>
       <c r="F19" s="2" t="n"/>
       <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>14 rue du zèbre</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>38760</t>
+          <t>16 rue du lapin</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>Varces Allières et Risset</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38500</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>VOIRON</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr"/>
       <c r="M19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N19" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O19" s="2" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>174</v>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>10/01/2024</t>
         </is>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="S19" s="2" t="inlineStr">
         <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S19" s="2" t="n"/>
+      <c r="T19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>huhu765@mail.com</t>
+          <t>qa99@exemple.fr</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>RUISSEAU</t>
+          <t>RUCHER</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Amandine</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>240105AR1;240110AR2</t>
+          <t>240110VR1</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>DON-ADH</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F20" s="2" t="n"/>
       <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>15 rue de la gerbille</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>38430</t>
-        </is>
-      </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>MOIRANS</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>42000</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>saint etienne</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr"/>
       <c r="M20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N20" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="Q20" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="Q20" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>10/01/2024</t>
         </is>
       </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Virement</t>
-        </is>
-      </c>
-      <c r="S20" s="2" t="n"/>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>koko8876@exemple.fr</t>
+          <t>sjjs183@mail.com</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>RIVIÈRE</t>
+          <t>TEMPERET</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Amélie</t>
+          <t>Véronique</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>240102AR1;240110AR1</t>
+          <t>240110VT1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>DON-ADH</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F21" s="2" t="n"/>
       <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>16 rue du lapin</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>38500</t>
+          <t>38 rue du capybara</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>VOIRON</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>GRENOBLE</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr"/>
       <c r="M21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N21" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O21" s="2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="2" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>10/01/2024</t>
         </is>
       </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Virement</t>
-        </is>
-      </c>
-      <c r="S21" s="2" t="n"/>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>Espèce</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>qa99@exemple.fr</t>
+          <t>nj76@mail.com</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>RUCHER</t>
+          <t>CARY</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>André</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>240110VR1</t>
+          <t>240112AC1</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -2055,70 +2129,73 @@
       </c>
       <c r="F22" s="2" t="n"/>
       <c r="G22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>15 rue de la gerbille</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>42000</t>
+          <t>17 rue du hamster</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>saint etienne</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>Grenoble</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr"/>
       <c r="M22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N22" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O22" s="2" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>10/01/2024</t>
-        </is>
+        <v>482</v>
+      </c>
+      <c r="Q22" s="2" t="n">
+        <v>500</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>paypal</t>
-        </is>
-      </c>
-      <c r="S22" s="2" t="n"/>
+          <t>12/01/2024</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>sjjs183@mail.com</t>
+          <t>joj98@mail.com</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>TEMPERET</t>
+          <t>TAMALOUT</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Véronique</t>
+          <t>Alexandre</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>240110VT1</t>
+          <t>240113AT1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -2128,70 +2205,73 @@
       </c>
       <c r="F23" s="2" t="n"/>
       <c r="G23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>38 rue du capybara</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>18 rue du lapin</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
           <t>38000</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
+      <c r="K23" s="2" t="inlineStr">
         <is>
           <t>GRENOBLE</t>
         </is>
       </c>
-      <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L23" s="2" t="inlineStr"/>
       <c r="M23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N23" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O23" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="2" t="inlineStr">
-        <is>
-          <t>10/01/2024</t>
-        </is>
+        <v>432</v>
+      </c>
+      <c r="Q23" s="2" t="n">
+        <v>450</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Espèce</t>
-        </is>
-      </c>
-      <c r="S23" s="2" t="n"/>
+          <t>13/01/2024</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>oty@test.fr</t>
+          <t>ttye@mail.com</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>TISON</t>
+          <t>TRESSEAU</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Léonie</t>
+          <t>Tristan</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>240111LT1</t>
+          <t>240114TT1</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2203,64 +2283,71 @@
       <c r="G24" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>16 rue du lapin</t>
-        </is>
+      <c r="H24" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="n"/>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>9 allée des lagomorphes</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>38170</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>Seyssinet Pariset</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr"/>
       <c r="M24" s="2" t="n">
-        <v>9.609999999999999</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="Q24" s="2" t="inlineStr">
-        <is>
-          <t>11/01/2024</t>
-        </is>
+        <v>21.19</v>
+      </c>
+      <c r="Q24" s="2" t="n">
+        <v>39.19</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
+          <t>14/01/2024</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S24" s="2" t="n"/>
+      <c r="T24" s="2" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>nj76@mail.com</t>
+          <t>azaz@mail.com</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>CARY</t>
+          <t>MORGAN</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>André</t>
+          <t>Moral</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>240112AC1</t>
+          <t>240114MM1</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -2272,68 +2359,71 @@
       <c r="G25" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H25" s="2" t="inlineStr">
+      <c r="H25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
         <is>
           <t>17 rue du hamster</t>
         </is>
       </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>38000</t>
-        </is>
-      </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>Grenoble</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38110</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>St Didier De La Tour</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr"/>
       <c r="M25" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>0</v>
+        <v>14.54</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>12/01/2024</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2" t="n">
+        <v>14.54</v>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Virement</t>
-        </is>
-      </c>
-      <c r="S25" s="2" t="n"/>
+          <t>14/01/2024</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>joj98@mail.com</t>
+          <t>sd78@mail.com</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>TAMALOUT</t>
+          <t>PROVOST</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Alexandre</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>240113AT1</t>
+          <t>240115VP1</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -2343,70 +2433,73 @@
       </c>
       <c r="F26" s="2" t="n"/>
       <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>18 rue du lapin</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H26" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
+          <t>19 avenue du dromadaire</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
           <t>38000</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>GRENOBLE</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr"/>
-      <c r="L26" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>Grenoble</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr"/>
       <c r="M26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N26" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O26" s="2" t="n">
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>450</v>
-      </c>
-      <c r="Q26" s="2" t="inlineStr">
-        <is>
-          <t>13/01/2024</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="Q26" s="2" t="n">
+        <v>25</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
+          <t>15/01/2024</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S26" s="2" t="n"/>
+      <c r="T26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>ttye@mail.com</t>
+          <t>oiij78@test.fr</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>TRESSEAU</t>
+          <t>PREVOST</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Tristan</t>
+          <t>Arthur</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>240114TT1</t>
+          <t>240115AP1</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -2416,70 +2509,73 @@
       </c>
       <c r="F27" s="2" t="n"/>
       <c r="G27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>9 allée des lagomorphes</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H27" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>38170</t>
+          <t>20 rue du lapin</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>Seyssinet Pariset</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38340</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>Voreppe</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr"/>
       <c r="M27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N27" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O27" s="2" t="n">
-        <v>21.19</v>
+        <v>0</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>39.19</v>
-      </c>
-      <c r="Q27" s="2" t="inlineStr">
-        <is>
-          <t>14/01/2024</t>
-        </is>
+        <v>182</v>
+      </c>
+      <c r="Q27" s="2" t="n">
+        <v>200</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>paypal</t>
-        </is>
-      </c>
-      <c r="S27" s="2" t="n"/>
+          <t>15/01/2024</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>azaz@mail.com</t>
+          <t>mooj98@exemple.fr</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>MORGAN</t>
+          <t>JULIEN</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Marion</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>240114MM1</t>
+          <t>240115MJ1</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -2489,70 +2585,73 @@
       </c>
       <c r="F28" s="2" t="n"/>
       <c r="G28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>17 rue du hamster</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>38110</t>
+          <t>21 rue de la gerbille</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>St Didier De La Tour</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr"/>
-      <c r="L28" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38440</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>ARTAS</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr"/>
       <c r="M28" s="2" t="n">
-        <v>14.54</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>14/01/2024</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="Q28" s="2" t="n">
+        <v>25</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>paypal</t>
-        </is>
-      </c>
-      <c r="S28" s="2" t="n"/>
+          <t>15/01/2024</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>ozoze@mail.com</t>
+          <t>zeze4@exemple.fr</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>LECLERC</t>
+          <t>SOLOGNOT</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Georges</t>
+          <t>Solange</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>240114GL1</t>
+          <t>240116SS1</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -2562,66 +2661,73 @@
       </c>
       <c r="F29" s="2" t="n"/>
       <c r="G29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>18 rue du lapin</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H29" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="n"/>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>19 avenue du dromadaire</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>38560</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>HAUTE JARRIE</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr"/>
       <c r="M29" s="2" t="n">
-        <v>6.65</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>14/01/2024</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="Q29" s="2" t="n">
+        <v>25</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
+          <t>16/01/2024</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S29" s="2" t="n"/>
+      <c r="T29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>sd78@mail.com</t>
+          <t>zdzd48@mail.com</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>PROVOST</t>
+          <t>RENAULT</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Vincent</t>
+          <t>Roméo</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>240115VP1</t>
+          <t>240116RR1</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -2631,70 +2737,73 @@
       </c>
       <c r="F30" s="2" t="n"/>
       <c r="G30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>19 avenue du dromadaire</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>21 rue de la gerbille</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>Grenoble</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38340</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>Le Chevalon de Voreppe</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr"/>
       <c r="M30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N30" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O30" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>15/01/2024</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="Q30" s="2" t="n">
+        <v>48</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Virement</t>
-        </is>
-      </c>
-      <c r="S30" s="2" t="n"/>
+          <t>16/01/2024</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>oiij78@test.fr</t>
+          <t>jsjs65@exemple.fr</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>PREVOST</t>
+          <t>MAURICE</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Arthur</t>
+          <t>Matilda</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>240115AP1</t>
+          <t>240116MM1</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -2704,70 +2813,73 @@
       </c>
       <c r="F31" s="2" t="n"/>
       <c r="G31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>20 rue du lapin</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>38340</t>
+          <t>22 rue du zèbre</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>Voreppe</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38350</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>Nantes en Rattier</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr"/>
       <c r="M31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N31" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O31" s="2" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="Q31" s="2" t="inlineStr">
-        <is>
-          <t>15/01/2024</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="Q31" s="2" t="n">
+        <v>20</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
+          <t>16/01/2024</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S31" s="2" t="n"/>
+      <c r="T31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>mooj98@exemple.fr</t>
+          <t>bbu756@mail.com</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>JULIEN</t>
+          <t>VINCENT</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Marion</t>
+          <t>Véronique</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>240115MJ1</t>
+          <t>240116VV1</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
@@ -2777,70 +2889,73 @@
       </c>
       <c r="F32" s="2" t="n"/>
       <c r="G32" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>21 rue de la gerbille</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H32" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>38440</t>
+          <t>23 rue de la gerbille</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>ARTAS</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38600</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>fontaine</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr"/>
       <c r="M32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N32" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O32" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q32" s="2" t="inlineStr">
-        <is>
-          <t>15/01/2024</t>
-        </is>
+        <v>32</v>
+      </c>
+      <c r="Q32" s="2" t="n">
+        <v>50</v>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
+          <t>16/01/2024</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S32" s="2" t="n"/>
+      <c r="T32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>zeze4@exemple.fr</t>
+          <t>bbhs65@test.fr</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>SOLOGNOT</t>
+          <t>BOULANGER</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Solange</t>
+          <t>Ludivine</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>240116SS1</t>
+          <t>240116LB1</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -2850,70 +2965,73 @@
       </c>
       <c r="F33" s="2" t="n"/>
       <c r="G33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>19 avenue du dromadaire</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H33" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>38560</t>
+          <t>24 allée des lagomorphes</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>HAUTE JARRIE</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38640</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>CLAIX</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr"/>
       <c r="M33" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q33" s="2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
         <is>
           <t>16/01/2024</t>
         </is>
       </c>
-      <c r="R33" s="2" t="inlineStr">
-        <is>
-          <t>paypal</t>
-        </is>
-      </c>
-      <c r="S33" s="2" t="n"/>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>ajab55@test.fr</t>
+          <t>zopekzoek48@test.fr</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>AUBERT</t>
+          <t>BARRAU</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Audrey</t>
+          <t>Sam</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>240116AA1</t>
+          <t>240117SB1</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -2923,70 +3041,73 @@
       </c>
       <c r="F34" s="2" t="n"/>
       <c r="G34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>20 rue du lapin</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H34" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>23 rue de la gerbille</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>VICHY</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38450</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>Vif</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr"/>
       <c r="M34" s="2" t="n">
-        <v>12.57</v>
+        <v>0</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>16/01/2024</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="Q34" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
+          <t>17/01/2024</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
           <t>paypal</t>
         </is>
       </c>
-      <c r="S34" s="2" t="n"/>
+      <c r="T34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>zdzd48@mail.com</t>
+          <t>hdhc8@exemple.fr</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>RENAULT</t>
+          <t>PASTEUR</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Roméo</t>
+          <t>Thérèse</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>240116RR1</t>
+          <t>240118TP1</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -2996,143 +3117,149 @@
       </c>
       <c r="F35" s="2" t="n"/>
       <c r="G35" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>21 rue de la gerbille</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H35" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>38340</t>
+          <t>25 rue du capybara</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>Le Chevalon de Voreppe</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38600</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>Fontaine</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr"/>
       <c r="M35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N35" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O35" s="2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Q35" s="2" t="inlineStr">
-        <is>
-          <t>16/01/2024</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="Q35" s="2" t="n">
+        <v>118</v>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>paypal</t>
-        </is>
-      </c>
-      <c r="S35" s="2" t="n"/>
+          <t>18/01/2024</t>
+        </is>
+      </c>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>jsjs65@exemple.fr</t>
+          <t>jnjsd7@test.fr</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>MAURICE</t>
+          <t>PASTIER</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Matilda</t>
+          <t>Jean-pierre</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>240116MM1</t>
+          <t>240105JP1;240119JP1</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>DON-ADH</t>
         </is>
       </c>
       <c r="F36" s="2" t="n"/>
       <c r="G36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>22 rue du zèbre</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H36" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>38350</t>
+          <t>26 avenue du dromadaire</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>Nantes en Rattier</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>73700</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>SEEZ</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr"/>
       <c r="M36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N36" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O36" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>16/01/2024</t>
-        </is>
+        <v>501.47</v>
+      </c>
+      <c r="Q36" s="2" t="n">
+        <v>519.47</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
+          <t>19/01/2024</t>
+        </is>
+      </c>
+      <c r="S36" s="2" t="inlineStr">
+        <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S36" s="2" t="n"/>
+      <c r="T36" s="2" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>bbu756@mail.com</t>
+          <t>lpalaze4@mail.com</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>VINCENT</t>
+          <t>MARTINEAU</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Véronique</t>
+          <t>Bérangère</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>240116VV1</t>
+          <t>240119BM1</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -3144,68 +3271,71 @@
       <c r="G37" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>23 rue de la gerbille</t>
-        </is>
+      <c r="H37" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>38600</t>
+          <t>24 allée des lagomorphes</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>fontaine</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>Grenoble</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr"/>
       <c r="M37" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>0</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q37" s="2" t="inlineStr">
-        <is>
-          <t>16/01/2024</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2" t="n">
+        <v>9.609999999999999</v>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Virement</t>
-        </is>
-      </c>
-      <c r="S37" s="2" t="n"/>
+          <t>19/01/2024</t>
+        </is>
+      </c>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>bbhs65@test.fr</t>
+          <t>azazd18@mail.com</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>BOULANGER</t>
+          <t>JACQUET</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Ludivine</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>240116LB1</t>
+          <t>240120JJ1</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -3217,68 +3347,71 @@
       <c r="G38" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>24 allée des lagomorphes</t>
-        </is>
+      <c r="H38" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>38640</t>
+          <t>25 rue du capybara</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>CLAIX</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38110</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>La Chapelle de la tour</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr"/>
       <c r="M38" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>0</v>
+        <v>4.68</v>
       </c>
       <c r="O38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>16/01/2024</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2" t="n">
+        <v>4.68</v>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Virement</t>
-        </is>
-      </c>
-      <c r="S38" s="2" t="n"/>
+          <t>20/01/2024</t>
+        </is>
+      </c>
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>sqdsqf4@exemple.fr</t>
+          <t>jbjsbd8@exemple.fr</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>BLONDEL</t>
+          <t>RUCHER</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Noémie</t>
+          <t>Francis</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>240117NB1</t>
+          <t>240122FR1</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -3288,66 +3421,73 @@
       </c>
       <c r="F39" s="2" t="n"/>
       <c r="G39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>22 rue du zèbre</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H39" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="n"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>27 rue du lapin</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>38920</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>Crolles</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr"/>
       <c r="M39" s="2" t="n">
-        <v>9.609999999999999</v>
+        <v>0</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="Q39" s="2" t="inlineStr">
-        <is>
-          <t>17/01/2024</t>
-        </is>
+        <v>82</v>
+      </c>
+      <c r="Q39" s="2" t="n">
+        <v>100</v>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>paypal</t>
-        </is>
-      </c>
-      <c r="S39" s="2" t="n"/>
+          <t>22/01/2024</t>
+        </is>
+      </c>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>zopekzoek48@test.fr</t>
+          <t>sjdbj786@exemple.fr</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>BARRAU</t>
+          <t>TISON</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Sam</t>
+          <t>Gisèle</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>240117SB1</t>
+          <t>240122GT1</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
@@ -3357,70 +3497,73 @@
       </c>
       <c r="F40" s="2" t="n"/>
       <c r="G40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>23 rue de la gerbille</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H40" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>38450</t>
+          <t>28 allée des lagomorphes</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>Vif</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38190</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>LAVAL</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr"/>
       <c r="M40" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q40" s="2" t="inlineStr">
-        <is>
-          <t>17/01/2024</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>paypal</t>
-        </is>
-      </c>
-      <c r="S40" s="2" t="n"/>
+          <t>22/01/2024</t>
+        </is>
+      </c>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="T40" s="2" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>hdhc8@exemple.fr</t>
+          <t>bhsd112@test.fr</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>PASTEUR</t>
+          <t>TRESSEAU</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Thérèse</t>
+          <t>Yves</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>240118TP1</t>
+          <t>240122YT1</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
@@ -3430,143 +3573,149 @@
       </c>
       <c r="F41" s="2" t="n"/>
       <c r="G41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>25 rue du capybara</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H41" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>38600</t>
+          <t>29 rue du zèbre</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>Fontaine</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="inlineStr"/>
-      <c r="L41" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38360</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>Noyarey</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr"/>
       <c r="M41" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>118</v>
-      </c>
-      <c r="Q41" s="2" t="inlineStr">
-        <is>
-          <t>18/01/2024</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
+          <t>22/01/2024</t>
+        </is>
+      </c>
+      <c r="S41" s="2" t="inlineStr">
+        <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S41" s="2" t="n"/>
+      <c r="T41" s="2" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>jnjsd7@test.fr</t>
+          <t>jij134@exemple.fr</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>PASTIER</t>
+          <t>MORGAN</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Jean-pierre</t>
+          <t>Gilles</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>240105JP1;240119JP1</t>
+          <t>240123GM1</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>DON-ADH</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F42" s="2" t="n"/>
       <c r="G42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>26 avenue du dromadaire</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H42" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>73700</t>
+          <t>30 rue du lapin</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>SEEZ</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38600</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>FONTAINE</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr"/>
       <c r="M42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N42" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O42" s="2" t="n">
-        <v>501.47</v>
+        <v>0</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>519.47</v>
-      </c>
-      <c r="Q42" s="2" t="inlineStr">
-        <is>
-          <t>19/01/2024</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2" t="n">
+        <v>18</v>
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="S42" s="2" t="inlineStr">
+        <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S42" s="2" t="n"/>
+      <c r="T42" s="2" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>lpalaze4@mail.com</t>
+          <t>hu7651@test.fr</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>MARTINEAU</t>
+          <t>LECLERC</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Bérangère</t>
+          <t>Léa</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>240119BM1</t>
+          <t>240123LL1</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
@@ -3576,70 +3725,73 @@
       </c>
       <c r="F43" s="2" t="n"/>
       <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>24 allée des lagomorphes</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H43" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>31 rue de la gerbille</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>Grenoble</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38610</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>Gières</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr"/>
       <c r="M43" s="2" t="n">
-        <v>9.609999999999999</v>
+        <v>0</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="Q43" s="2" t="inlineStr">
-        <is>
-          <t>19/01/2024</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2" t="n">
+        <v>10</v>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>paypal</t>
-        </is>
-      </c>
-      <c r="S43" s="2" t="n"/>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t>Virement</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>azazd18@mail.com</t>
+          <t>apn514@mail.com</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>JACQUET</t>
+          <t>PARASOL</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Nathalie</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>240120JJ1</t>
+          <t>240123NP1</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
@@ -3649,70 +3801,73 @@
       </c>
       <c r="F44" s="2" t="n"/>
       <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>25 rue du capybara</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H44" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>38110</t>
+          <t>39 rue de la gerbille</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>La Chapelle de la tour</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr"/>
-      <c r="L44" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>GRENOBLE</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr"/>
       <c r="M44" s="2" t="n">
-        <v>4.68</v>
+        <v>0</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="Q44" s="2" t="inlineStr">
-        <is>
-          <t>20/01/2024</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="Q44" s="2" t="n">
+        <v>20</v>
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t>paypal</t>
-        </is>
-      </c>
-      <c r="S44" s="2" t="n"/>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>Espèce</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>fbb5@mail.com</t>
+          <t>gn267@test.fr</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>DIAZ</t>
+          <t>GAY</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>Noël</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>240120DD1</t>
+          <t>240124NG1</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
@@ -3722,66 +3877,73 @@
       </c>
       <c r="F45" s="2" t="n"/>
       <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>28 allée des lagomorphes</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H45" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J45" s="2" t="n"/>
-      <c r="K45" s="2" t="inlineStr"/>
-      <c r="L45" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>1 rue du lapin</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>38240</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>MEYLANI</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr"/>
       <c r="M45" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>1.469999999999999</v>
+        <v>0</v>
       </c>
       <c r="P45" s="2" t="n">
-        <v>19.47</v>
-      </c>
-      <c r="Q45" s="2" t="inlineStr">
-        <is>
-          <t>20/01/2024</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2" t="n">
+        <v>15</v>
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>paypal</t>
-        </is>
-      </c>
-      <c r="S45" s="2" t="n"/>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="S45" s="2" t="inlineStr">
+        <is>
+          <t>helloAsso</t>
+        </is>
+      </c>
+      <c r="T45" s="2" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>jbjsbd8@exemple.fr</t>
+          <t>12djd@mail.com</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>RUCHER</t>
+          <t>SOLOGNOT</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Francis</t>
+          <t>Léo</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>240122FR1</t>
+          <t>240124LS1</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
@@ -3791,143 +3953,149 @@
       </c>
       <c r="F46" s="2" t="n"/>
       <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>27 rue du lapin</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H46" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>38920</t>
+          <t>32 rue du zèbre</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>Crolles</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="inlineStr"/>
-      <c r="L46" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>69230</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>SAINT-GENIS-LAVAL</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr"/>
       <c r="M46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N46" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O46" s="2" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>22/01/2024</t>
-        </is>
+        <v>17</v>
+      </c>
+      <c r="Q46" s="2" t="n">
+        <v>35</v>
       </c>
       <c r="R46" s="2" t="inlineStr">
         <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S46" s="2" t="n"/>
+      <c r="T46" s="2" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>sjdbj786@exemple.fr</t>
+          <t>art134@mail.com</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>TISON</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Gisèle</t>
+          <t>Patrice</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>240122GT1</t>
+          <t>240105PN1;240126PN1</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>DON-ADH</t>
         </is>
       </c>
       <c r="F47" s="2" t="n"/>
       <c r="G47" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" s="2" t="inlineStr">
-        <is>
-          <t>28 allée des lagomorphes</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H47" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>38190</t>
+          <t>34 rue du lapin</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>LAVAL</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="inlineStr"/>
-      <c r="L47" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38120</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>Saint-Égrève</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr"/>
       <c r="M47" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P47" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="2" t="inlineStr">
-        <is>
-          <t>22/01/2024</t>
-        </is>
+        <v>21.33</v>
+      </c>
+      <c r="Q47" s="2" t="n">
+        <v>39.33</v>
       </c>
       <c r="R47" s="2" t="inlineStr">
         <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="S47" s="2" t="inlineStr">
+        <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S47" s="2" t="n"/>
+      <c r="T47" s="2" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>bhsd112@test.fr</t>
+          <t>091ssj@exemple.fr</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>TRESSEAU</t>
+          <t>ZANZIBAR</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Yves</t>
+          <t>Maurice</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>240122YT1</t>
+          <t>240126MZ1</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
@@ -3937,70 +4105,73 @@
       </c>
       <c r="F48" s="2" t="n"/>
       <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>29 rue du zèbre</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H48" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>38360</t>
+          <t>33 rue de la gerbille</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>Noyarey</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38110</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>MONTAGNIEU</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr"/>
       <c r="M48" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P48" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="2" t="inlineStr">
-        <is>
-          <t>22/01/2024</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2" t="n">
+        <v>18</v>
       </c>
       <c r="R48" s="2" t="inlineStr">
         <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="S48" s="2" t="inlineStr">
+        <is>
           <t>Virement</t>
         </is>
       </c>
-      <c r="S48" s="2" t="n"/>
+      <c r="T48" s="2" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>jij134@exemple.fr</t>
+          <t>ea7@test.fr</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>MORGAN</t>
+          <t>LESAGE</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Gilles</t>
+          <t>Léo</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>240123GM1</t>
+          <t>240127LL1</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
@@ -4010,70 +4181,73 @@
       </c>
       <c r="F49" s="2" t="n"/>
       <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>30 rue du lapin</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H49" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>38600</t>
+          <t>29 rue du zèbre</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>FONTAINE</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>30240</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>Le Grau-du-Roi</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr"/>
       <c r="M49" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P49" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q49" s="2" t="inlineStr">
-        <is>
-          <t>23/01/2024</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2" t="n">
+        <v>10</v>
       </c>
       <c r="R49" s="2" t="inlineStr">
         <is>
-          <t>Virement</t>
-        </is>
-      </c>
-      <c r="S49" s="2" t="n"/>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="S49" s="2" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="T49" s="2" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>hu7651@test.fr</t>
+          <t>zdeqsooj98@exemple.fr</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>LECLERC</t>
+          <t>WEBER</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Léa</t>
+          <t>Therese</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>240123LL1</t>
+          <t>240129TW1</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
@@ -4085,68 +4259,71 @@
       <c r="G50" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>31 rue de la gerbille</t>
-        </is>
+      <c r="H50" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>38610</t>
+          <t>33 rue de la gerbille</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>Gières</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="inlineStr"/>
-      <c r="L50" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38390</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>VERTRIEU</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr"/>
       <c r="M50" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>0</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="O50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P50" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q50" s="2" t="inlineStr">
-        <is>
-          <t>23/01/2024</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2" t="n">
+        <v>9.609999999999999</v>
       </c>
       <c r="R50" s="2" t="inlineStr">
         <is>
-          <t>Virement</t>
-        </is>
-      </c>
-      <c r="S50" s="2" t="n"/>
+          <t>29/01/2024</t>
+        </is>
+      </c>
+      <c r="S50" s="2" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="T50" s="2" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>apn514@mail.com</t>
+          <t>112ssss@mail.com</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>PARASOL</t>
+          <t>FROID</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Nathalie</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>240123NP1</t>
+          <t>240129PF1</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
@@ -4156,70 +4333,73 @@
       </c>
       <c r="F51" s="2" t="n"/>
       <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>39 rue de la gerbille</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H51" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>35 avenue du dromadaire</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>GRENOBLE</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="inlineStr"/>
-      <c r="L51" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38150</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>Salaise-sur-Sanne 38150</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr"/>
       <c r="M51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N51" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="P51" s="2" t="n">
+      <c r="Q51" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="Q51" s="2" t="inlineStr">
-        <is>
-          <t>23/01/2024</t>
-        </is>
-      </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
-          <t>Espèce</t>
-        </is>
-      </c>
-      <c r="S51" s="2" t="n"/>
+          <t>29/01/2024</t>
+        </is>
+      </c>
+      <c r="S51" s="2" t="inlineStr">
+        <is>
+          <t>Chèque</t>
+        </is>
+      </c>
+      <c r="T51" s="2" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>gn267@test.fr</t>
+          <t>uhu761@test.fr</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>GAY</t>
+          <t>CHAUD</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Noël</t>
+          <t>Henri</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>240124NG1</t>
+          <t>240129HC1</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
@@ -4229,70 +4409,73 @@
       </c>
       <c r="F52" s="2" t="n"/>
       <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>1 rue du lapin</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H52" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>38240</t>
+          <t>36 rue du hamster</t>
         </is>
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>MEYLANI</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="inlineStr"/>
-      <c r="L52" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38300</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>BOURGOIN JALLIEU</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr"/>
       <c r="M52" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N52" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P52" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q52" s="2" t="inlineStr">
-        <is>
-          <t>24/01/2024</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="Q52" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="R52" s="2" t="inlineStr">
         <is>
-          <t>helloAsso</t>
-        </is>
-      </c>
-      <c r="S52" s="2" t="n"/>
+          <t>29/01/2024</t>
+        </is>
+      </c>
+      <c r="S52" s="2" t="inlineStr">
+        <is>
+          <t>Chèque</t>
+        </is>
+      </c>
+      <c r="T52" s="2" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>12djd@mail.com</t>
+          <t>azaz541@test.fr</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>SOLOGNOT</t>
+          <t>TIÈDE</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Léo</t>
+          <t>Alice</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>240124LS1</t>
+          <t>240129AT1</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
@@ -4302,143 +4485,149 @@
       </c>
       <c r="F53" s="2" t="n"/>
       <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>32 rue du zèbre</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H53" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>69230</t>
+          <t>37 rue du lapin</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr">
         <is>
-          <t>SAINT-GENIS-LAVAL</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="inlineStr"/>
-      <c r="L53" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38610</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>Gieres</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr"/>
       <c r="M53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="N53" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O53" s="2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P53" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q53" s="2" t="inlineStr">
-        <is>
-          <t>24/01/2024</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="Q53" s="2" t="n">
+        <v>25</v>
       </c>
       <c r="R53" s="2" t="inlineStr">
         <is>
-          <t>Virement</t>
-        </is>
-      </c>
-      <c r="S53" s="2" t="n"/>
+          <t>29/01/2024</t>
+        </is>
+      </c>
+      <c r="S53" s="2" t="inlineStr">
+        <is>
+          <t>Chèque</t>
+        </is>
+      </c>
+      <c r="T53" s="2" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>art134@mail.com</t>
+          <t>lmm4@mail.com</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>BOURDON</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Patrice</t>
+          <t>Julien</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>240105PN1;240126PN1</t>
+          <t>240131JB1</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>DON-ADH</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F54" s="2" t="n"/>
       <c r="G54" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>34 rue du lapin</t>
-        </is>
+      <c r="H54" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>38120</t>
+          <t>39 rue de la gerbille</t>
         </is>
       </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>Saint-Égrève</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="inlineStr"/>
-      <c r="L54" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38090</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>Villefontaine</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr"/>
       <c r="M54" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N54" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>21.33</v>
+        <v>0</v>
       </c>
       <c r="P54" s="2" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="Q54" s="2" t="inlineStr">
-        <is>
-          <t>26/01/2024</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="2" t="n">
+        <v>10</v>
       </c>
       <c r="R54" s="2" t="inlineStr">
         <is>
-          <t>Virement</t>
-        </is>
-      </c>
-      <c r="S54" s="2" t="n"/>
+          <t>31/01/2024</t>
+        </is>
+      </c>
+      <c r="S54" s="2" t="inlineStr">
+        <is>
+          <t>paypal</t>
+        </is>
+      </c>
+      <c r="T54" s="2" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>091ssj@exemple.fr</t>
+          <t>test@mail.com</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>ZANZIBAR</t>
+          <t>COBAIN</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Maurice</t>
+          <t>Kurt</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>240126MZ1</t>
+          <t>240202KC1</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
@@ -4448,70 +4637,73 @@
       </c>
       <c r="F55" s="2" t="n"/>
       <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>33 rue de la gerbille</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H55" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>38110</t>
+          <t>1 allée Keanu Reeves</t>
         </is>
       </c>
       <c r="J55" s="2" t="inlineStr">
         <is>
-          <t>MONTAGNIEU</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="inlineStr"/>
-      <c r="L55" s="2" t="n">
-        <v>0</v>
-      </c>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>Grenoble</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr"/>
       <c r="M55" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N55" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P55" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q55" s="2" t="inlineStr">
-        <is>
-          <t>26/01/2024</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2" t="n">
+        <v>15</v>
       </c>
       <c r="R55" s="2" t="inlineStr">
         <is>
-          <t>Virement</t>
-        </is>
-      </c>
-      <c r="S55" s="2" t="n"/>
+          <t>02/02/2024</t>
+        </is>
+      </c>
+      <c r="S55" s="2" t="inlineStr">
+        <is>
+          <t>Espèce</t>
+        </is>
+      </c>
+      <c r="T55" s="2" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>ea7@test.fr</t>
+          <t>zdeokek@mail.com</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>LESAGE</t>
+          <t>BOULANGER</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Léo</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>240127LL1</t>
+          <t>240802VB1</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
@@ -4521,70 +4713,77 @@
       </c>
       <c r="F56" s="2" t="n"/>
       <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>29 rue du zèbre</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H56" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>30240</t>
+          <t>6 ter Passage du Chat Européen Appt 66</t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>Le Grau-du-Roi</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="inlineStr"/>
-      <c r="L56" s="2" t="n">
-        <v>0</v>
+          <t>38010</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>Gre-sur-Isère</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>0606060606</t>
+        </is>
       </c>
       <c r="M56" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N56" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P56" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q56" s="2" t="inlineStr">
-        <is>
-          <t>27/01/2024</t>
-        </is>
+        <v>193</v>
+      </c>
+      <c r="Q56" s="2" t="n">
+        <v>211</v>
       </c>
       <c r="R56" s="2" t="inlineStr">
         <is>
-          <t>paypal</t>
-        </is>
-      </c>
-      <c r="S56" s="2" t="n"/>
+          <t>02/08/2024</t>
+        </is>
+      </c>
+      <c r="S56" s="2" t="inlineStr">
+        <is>
+          <t>cb</t>
+        </is>
+      </c>
+      <c r="T56" s="2" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>zdeqsooj98@exemple.fr</t>
+          <t>vincent.bourdon41@gmail.com</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>WEBER</t>
+          <t>BOURDON</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Therese</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>240129TW1</t>
+          <t>241001VB1</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
@@ -4594,642 +4793,57 @@
       </c>
       <c r="F57" s="2" t="n"/>
       <c r="G57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>33 rue de la gerbille</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H57" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>38390</t>
+          <t xml:space="preserve">6 Allée Aloyzi Kospicki </t>
         </is>
       </c>
       <c r="J57" s="2" t="inlineStr">
         <is>
-          <t>VERTRIEU</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="inlineStr"/>
-      <c r="L57" s="2" t="n">
-        <v>0</v>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>Grenoble</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>0760576629</t>
+        </is>
       </c>
       <c r="M57" s="2" t="n">
-        <v>9.609999999999999</v>
+        <v>0</v>
       </c>
       <c r="N57" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O57" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="P57" s="2" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="Q57" s="2" t="inlineStr">
-        <is>
-          <t>29/01/2024</t>
-        </is>
+        <v>154</v>
+      </c>
+      <c r="Q57" s="2" t="n">
+        <v>190</v>
       </c>
       <c r="R57" s="2" t="inlineStr">
         <is>
-          <t>paypal</t>
-        </is>
-      </c>
-      <c r="S57" s="2" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>112ssss@mail.com</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>FROID</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t>Patricia</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="inlineStr">
-        <is>
-          <t>240129PF1</t>
-        </is>
-      </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="n"/>
-      <c r="G58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>35 avenue du dromadaire</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="inlineStr">
-        <is>
-          <t>38150</t>
-        </is>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>Salaise-sur-Sanne 38150</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="inlineStr"/>
-      <c r="L58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="N58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P58" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q58" s="2" t="inlineStr">
-        <is>
-          <t>29/01/2024</t>
-        </is>
-      </c>
-      <c r="R58" s="2" t="inlineStr">
-        <is>
-          <t>Chèque</t>
-        </is>
-      </c>
-      <c r="S58" s="2" t="n"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>uhu761@test.fr</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>CHAUD</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>Henri</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="inlineStr">
-        <is>
-          <t>240129HC1</t>
-        </is>
-      </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="n"/>
-      <c r="G59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>36 rue du hamster</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="inlineStr">
-        <is>
-          <t>38300</t>
-        </is>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>BOURGOIN JALLIEU</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="inlineStr"/>
-      <c r="L59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="N59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="P59" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q59" s="2" t="inlineStr">
-        <is>
-          <t>29/01/2024</t>
-        </is>
-      </c>
-      <c r="R59" s="2" t="inlineStr">
-        <is>
-          <t>Chèque</t>
-        </is>
-      </c>
-      <c r="S59" s="2" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>azaz541@test.fr</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>TIÈDE</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>Alice</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>240129AT1</t>
-        </is>
-      </c>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="n"/>
-      <c r="G60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>37 rue du lapin</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="inlineStr">
-        <is>
-          <t>38610</t>
-        </is>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>Gieres</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="inlineStr"/>
-      <c r="L60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="N60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="P60" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q60" s="2" t="inlineStr">
-        <is>
-          <t>29/01/2024</t>
-        </is>
-      </c>
-      <c r="R60" s="2" t="inlineStr">
-        <is>
-          <t>Chèque</t>
-        </is>
-      </c>
-      <c r="S60" s="2" t="n"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>zdqd52@exemple.fr</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>KOWALSKI</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>Francis</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>240131FK1</t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="n"/>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>38 rue du capybara</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J61" s="2" t="n"/>
-      <c r="K61" s="2" t="inlineStr"/>
-      <c r="L61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" s="2" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="N61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" s="2" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="Q61" s="2" t="inlineStr">
-        <is>
-          <t>31/01/2024</t>
-        </is>
-      </c>
-      <c r="R61" s="2" t="inlineStr">
-        <is>
-          <t>paypal</t>
-        </is>
-      </c>
-      <c r="S61" s="2" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>lmm4@mail.com</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>BOURDON</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>Julien</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>240131JB1</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F62" s="2" t="n"/>
-      <c r="G62" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
-        <is>
-          <t>39 rue de la gerbille</t>
-        </is>
-      </c>
-      <c r="I62" s="2" t="inlineStr">
-        <is>
-          <t>38090</t>
-        </is>
-      </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>Villefontaine</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="inlineStr"/>
-      <c r="L62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="N62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q62" s="2" t="inlineStr">
-        <is>
-          <t>31/01/2024</t>
-        </is>
-      </c>
-      <c r="R62" s="2" t="inlineStr">
-        <is>
-          <t>paypal</t>
-        </is>
-      </c>
-      <c r="S62" s="2" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>zse59@exemple.fr</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>BOUCHARD</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>Victoire</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>240801VB1</t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="n"/>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6 rue des Cockers </t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="inlineStr">
-        <is>
-          <t>8011</t>
-        </is>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>Gre-sur-Ciel</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="inlineStr">
-        <is>
-          <t>707070707</t>
-        </is>
-      </c>
-      <c r="L63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="2" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="R63" s="2" t="inlineStr">
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="S57" s="2" t="inlineStr">
         <is>
           <t>cb</t>
         </is>
       </c>
-      <c r="S63" s="2" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>zdeokek@mail.com</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>BOULANGER</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="inlineStr">
-        <is>
-          <t>240802VB1</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="n"/>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>6 ter Passage du Chat Européen Appt 66</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="inlineStr">
-        <is>
-          <t>38010</t>
-        </is>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>Gre-sur-Isère</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="inlineStr">
-        <is>
-          <t>606060606</t>
-        </is>
-      </c>
-      <c r="L64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="N64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" s="2" t="n">
-        <v>193</v>
-      </c>
-      <c r="P64" s="2" t="n">
-        <v>211</v>
-      </c>
-      <c r="Q64" s="2" t="inlineStr">
-        <is>
-          <t>02/08/2024</t>
-        </is>
-      </c>
-      <c r="R64" s="2" t="inlineStr">
-        <is>
-          <t>cb</t>
-        </is>
-      </c>
-      <c r="S64" s="2" t="n"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>vincent.bourdon41@gmail.com</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>BOURDON</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>Vincent</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr">
-        <is>
-          <t>241001VB1</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="n"/>
-      <c r="G65" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6 Allée Aloyzi Kospicki </t>
-        </is>
-      </c>
-      <c r="I65" s="2" t="inlineStr">
-        <is>
-          <t>38000</t>
-        </is>
-      </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>Grenoble</t>
-        </is>
-      </c>
-      <c r="K65" s="2" t="inlineStr">
-        <is>
-          <t>760576629</t>
-        </is>
-      </c>
-      <c r="L65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="N65" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="O65" s="2" t="n">
-        <v>154</v>
-      </c>
-      <c r="P65" s="2" t="n">
-        <v>190</v>
-      </c>
-      <c r="Q65" s="2" t="inlineStr">
-        <is>
-          <t>01/10/2024</t>
-        </is>
-      </c>
-      <c r="R65" s="2" t="inlineStr">
-        <is>
-          <t>cb</t>
-        </is>
-      </c>
-      <c r="S65" s="2" t="n"/>
+      <c r="T57" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/donnees/listesAdherents/2024.xlsx
+++ b/donnees/listesAdherents/2024.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <col width="8" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="10" customWidth="1" min="17" max="17"/>
     <col width="10" customWidth="1" min="18" max="18"/>
     <col width="10" customWidth="1" min="19" max="19"/>
     <col width="20" customWidth="1" min="20" max="20"/>
@@ -584,22 +584,22 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>an233@mail.com</t>
+          <t>gn267@test.fr</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>AUBERT</t>
+          <t>GAY</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nicolas</t>
+          <t>Noël</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>240122NA1;240102NA1</t>
+          <t>240124NG1;240102NG1</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -608,25 +608,27 @@
         </is>
       </c>
       <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>P&amp;R</t>
+        </is>
       </c>
       <c r="H2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>2 rue de la gerbille</t>
+          <t>1 rue du lapin</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>38260</t>
+          <t>38240</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>POMMIER DE BEAUREPAIRE</t>
+          <t>MEYLANI</t>
         </is>
       </c>
       <c r="L2" s="2" t="inlineStr"/>
@@ -640,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -660,22 +662,22 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>rh323@exemple.fr</t>
+          <t>an233@mail.com</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>RENAULT</t>
+          <t>AUBERT</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Hortense</t>
+          <t>Nicolas</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>240121HR1;240102HR1</t>
+          <t>240122NA1;240102NA1</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -684,25 +686,27 @@
         </is>
       </c>
       <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="b">
-        <v>1</v>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>P&amp;R</t>
+        </is>
       </c>
       <c r="H3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>3 rue du hamster</t>
+          <t>2 rue de la gerbille</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>38410</t>
+          <t>38260</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>Saint Martin d'Uriage</t>
+          <t>POMMIER DE BEAUREPAIRE</t>
         </is>
       </c>
       <c r="L3" s="2" t="inlineStr"/>
@@ -716,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>532</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>550</v>
+        <v>30</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
@@ -736,22 +740,22 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>jij7667@exemple.fr</t>
+          <t>rh323@exemple.fr</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>BLONDEL</t>
+          <t>RENAULT</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Henriette</t>
+          <t>Hortense</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>240118HB1;240102HB1</t>
+          <t>240121HR1;240102HR1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -760,25 +764,27 @@
         </is>
       </c>
       <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="b">
-        <v>0</v>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>P&amp;R</t>
+        </is>
       </c>
       <c r="H4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4 avenue du dromadaire</t>
+          <t>3 rue du hamster</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>38700</t>
+          <t>38410</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>La Tronche</t>
+          <t>Saint Martin d'Uriage</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr"/>
@@ -792,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3</v>
+        <v>532</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>21</v>
+        <v>550</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
@@ -812,49 +818,49 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>gn267@test.fr</t>
+          <t>jij7667@exemple.fr</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>GAY</t>
+          <t>BLONDEL</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Noël</t>
+          <t>Henriette</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>240102NG1</t>
+          <t>240118HB1;240102HB1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>DON-ADH</t>
         </is>
       </c>
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1 rue du lapin</t>
+          <t>4 avenue du dromadaire</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>38240</t>
+          <t>38700</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>MEYLANI</t>
+          <t>La Tronche</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr"/>
@@ -862,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="O5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
@@ -1520,8 +1526,10 @@
         </is>
       </c>
       <c r="F14" s="2" t="n"/>
-      <c r="G14" s="2" t="b">
-        <v>0</v>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>P&amp;R</t>
+        </is>
       </c>
       <c r="H14" s="2" t="b">
         <v>1</v>
@@ -2048,10 +2056,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G21" s="2" t="b">
         <v>0</v>
       </c>
@@ -2075,16 +2085,16 @@
       </c>
       <c r="L21" s="2" t="inlineStr"/>
       <c r="M21" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="2" t="n">
         <v>20</v>
@@ -2124,10 +2134,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G22" s="2" t="b">
         <v>0</v>
       </c>
@@ -2151,16 +2163,16 @@
       </c>
       <c r="L22" s="2" t="inlineStr"/>
       <c r="M22" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="Q22" s="2" t="n">
         <v>500</v>
@@ -2200,10 +2212,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G23" s="2" t="b">
         <v>0</v>
       </c>
@@ -2227,16 +2241,16 @@
       </c>
       <c r="L23" s="2" t="inlineStr"/>
       <c r="M23" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="Q23" s="2" t="n">
         <v>450</v>
@@ -2428,10 +2442,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G26" s="2" t="b">
         <v>0</v>
       </c>
@@ -2455,16 +2471,16 @@
       </c>
       <c r="L26" s="2" t="inlineStr"/>
       <c r="M26" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="2" t="n">
         <v>25</v>
@@ -2504,10 +2520,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G27" s="2" t="b">
         <v>0</v>
       </c>
@@ -2531,16 +2549,16 @@
       </c>
       <c r="L27" s="2" t="inlineStr"/>
       <c r="M27" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="Q27" s="2" t="n">
         <v>200</v>
@@ -2580,10 +2598,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G28" s="2" t="b">
         <v>0</v>
       </c>
@@ -2607,16 +2627,16 @@
       </c>
       <c r="L28" s="2" t="inlineStr"/>
       <c r="M28" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="Q28" s="2" t="n">
         <v>25</v>
@@ -2808,10 +2828,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G31" s="2" t="b">
         <v>0</v>
       </c>
@@ -2835,16 +2857,16 @@
       </c>
       <c r="L31" s="2" t="inlineStr"/>
       <c r="M31" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q31" s="2" t="n">
         <v>20</v>
@@ -2884,10 +2906,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G32" s="2" t="b">
         <v>0</v>
       </c>
@@ -2911,16 +2935,16 @@
       </c>
       <c r="L32" s="2" t="inlineStr"/>
       <c r="M32" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="O32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="Q32" s="2" t="n">
         <v>50</v>
@@ -2960,10 +2984,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G33" s="2" t="b">
         <v>0</v>
       </c>
@@ -2987,7 +3013,7 @@
       </c>
       <c r="L33" s="2" t="inlineStr"/>
       <c r="M33" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N33" s="2" t="n">
         <v>5</v>
@@ -3112,10 +3138,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G35" s="2" t="b">
         <v>0</v>
       </c>
@@ -3139,16 +3167,16 @@
       </c>
       <c r="L35" s="2" t="inlineStr"/>
       <c r="M35" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="Q35" s="2" t="n">
         <v>118</v>
@@ -3188,12 +3216,16 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>DON-ADH</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="n"/>
-      <c r="G36" s="2" t="b">
-        <v>0</v>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>P&amp;R</t>
+        </is>
       </c>
       <c r="H36" s="2" t="b">
         <v>1</v>
@@ -3215,16 +3247,16 @@
       </c>
       <c r="L36" s="2" t="inlineStr"/>
       <c r="M36" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>501.47</v>
+        <v>519.47</v>
       </c>
       <c r="Q36" s="2" t="n">
         <v>519.47</v>
@@ -3416,10 +3448,12 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G39" s="2" t="b">
         <v>0</v>
       </c>
@@ -3443,16 +3477,16 @@
       </c>
       <c r="L39" s="2" t="inlineStr"/>
       <c r="M39" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="O39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Q39" s="2" t="n">
         <v>100</v>
@@ -3492,10 +3526,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G40" s="2" t="b">
         <v>0</v>
       </c>
@@ -3519,16 +3555,16 @@
       </c>
       <c r="L40" s="2" t="inlineStr"/>
       <c r="M40" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="O40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="Q40" s="2" t="n">
         <v>5</v>
@@ -3568,10 +3604,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G41" s="2" t="b">
         <v>0</v>
       </c>
@@ -3595,16 +3633,16 @@
       </c>
       <c r="L41" s="2" t="inlineStr"/>
       <c r="M41" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="O41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="Q41" s="2" t="n">
         <v>5</v>
@@ -3644,10 +3682,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G42" s="2" t="b">
         <v>0</v>
       </c>
@@ -3671,16 +3711,16 @@
       </c>
       <c r="L42" s="2" t="inlineStr"/>
       <c r="M42" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q42" s="2" t="n">
         <v>18</v>
@@ -3720,10 +3760,12 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G43" s="2" t="b">
         <v>0</v>
       </c>
@@ -3747,16 +3789,16 @@
       </c>
       <c r="L43" s="2" t="inlineStr"/>
       <c r="M43" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="O43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="Q43" s="2" t="n">
         <v>10</v>
@@ -3796,10 +3838,12 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G44" s="2" t="b">
         <v>0</v>
       </c>
@@ -3823,16 +3867,16 @@
       </c>
       <c r="L44" s="2" t="inlineStr"/>
       <c r="M44" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q44" s="2" t="n">
         <v>20</v>
@@ -3852,30 +3896,32 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>gn267@test.fr</t>
+          <t>12djd@mail.com</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>GAY</t>
+          <t>SOLOGNOT</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Noël</t>
+          <t>Léo</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>240124NG1</t>
+          <t>240124LS1</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G45" s="2" t="b">
         <v>0</v>
       </c>
@@ -3884,34 +3930,34 @@
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>1 rue du lapin</t>
+          <t>32 rue du zèbre</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>38240</t>
+          <t>69230</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>MEYLANI</t>
+          <t>SAINT-GENIS-LAVAL</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr"/>
       <c r="M45" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P45" s="2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
@@ -3920,7 +3966,7 @@
       </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>helloAsso</t>
+          <t>Virement</t>
         </is>
       </c>
       <c r="T45" s="2" t="n"/>
@@ -3928,70 +3974,74 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>12djd@mail.com</t>
+          <t>art134@mail.com</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>SOLOGNOT</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Léo</t>
+          <t>Patrice</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>240124LS1</t>
+          <t>240105PN1;240126PN1</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F46" s="2" t="n"/>
-      <c r="G46" s="2" t="b">
-        <v>0</v>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>P&amp;R</t>
+        </is>
       </c>
       <c r="H46" s="2" t="b">
         <v>1</v>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>32 rue du zèbre</t>
+          <t>34 rue du lapin</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>69230</t>
+          <t>38120</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>SAINT-GENIS-LAVAL</t>
+          <t>Saint-Égrève</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr"/>
       <c r="M46" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>17</v>
+        <v>39.33</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>35</v>
+        <v>39.33</v>
       </c>
       <c r="R46" s="2" t="inlineStr">
         <is>
-          <t>24/01/2024</t>
+          <t>26/01/2024</t>
         </is>
       </c>
       <c r="S46" s="2" t="inlineStr">
@@ -4004,30 +4054,32 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>art134@mail.com</t>
+          <t>091ssj@exemple.fr</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ZANZIBAR</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Patrice</t>
+          <t>Maurice</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>240105PN1;240126PN1</t>
+          <t>240126MZ1</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>DON-ADH</t>
-        </is>
-      </c>
-      <c r="F47" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G47" s="2" t="b">
         <v>0</v>
       </c>
@@ -4036,34 +4088,34 @@
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>34 rue du lapin</t>
+          <t>33 rue de la gerbille</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>38120</t>
+          <t>38110</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>Saint-Égrève</t>
+          <t>MONTAGNIEU</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr"/>
       <c r="M47" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="O47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="2" t="n">
-        <v>21.33</v>
-      </c>
       <c r="Q47" s="2" t="n">
-        <v>39.33</v>
+        <v>18</v>
       </c>
       <c r="R47" s="2" t="inlineStr">
         <is>
@@ -4080,22 +4132,22 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>091ssj@exemple.fr</t>
+          <t>ea7@test.fr</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>ZANZIBAR</t>
+          <t>LESAGE</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Maurice</t>
+          <t>Léo</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>240126MZ1</t>
+          <t>240127LL1</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
@@ -4112,17 +4164,17 @@
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>33 rue de la gerbille</t>
+          <t>29 rue du zèbre</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>38110</t>
+          <t>30240</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>MONTAGNIEU</t>
+          <t>Le Grau-du-Roi</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr"/>
@@ -4130,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="O48" s="2" t="n">
         <v>0</v>
@@ -4139,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R48" s="2" t="inlineStr">
         <is>
-          <t>26/01/2024</t>
+          <t>27/01/2024</t>
         </is>
       </c>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>Virement</t>
+          <t>paypal</t>
         </is>
       </c>
       <c r="T48" s="2" t="n"/>
@@ -4156,22 +4208,22 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>ea7@test.fr</t>
+          <t>zdeqsooj98@exemple.fr</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>LESAGE</t>
+          <t>WEBER</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Léo</t>
+          <t>Therese</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>240127LL1</t>
+          <t>240129TW1</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
@@ -4181,24 +4233,24 @@
       </c>
       <c r="F49" s="2" t="n"/>
       <c r="G49" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="2" t="b">
         <v>1</v>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>29 rue du zèbre</t>
+          <t>33 rue de la gerbille</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>30240</t>
+          <t>38390</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>Le Grau-du-Roi</t>
+          <t>VERTRIEU</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr"/>
@@ -4206,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>10</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="O49" s="2" t="n">
         <v>0</v>
@@ -4215,11 +4267,11 @@
         <v>0</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>10</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="R49" s="2" t="inlineStr">
         <is>
-          <t>27/01/2024</t>
+          <t>29/01/2024</t>
         </is>
       </c>
       <c r="S49" s="2" t="inlineStr">
@@ -4232,66 +4284,68 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>zdeqsooj98@exemple.fr</t>
+          <t>112ssss@mail.com</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>WEBER</t>
+          <t>FROID</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Therese</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>240129TW1</t>
+          <t>240129PF1</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G50" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="2" t="b">
         <v>1</v>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>33 rue de la gerbille</t>
+          <t>35 avenue du dromadaire</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>38390</t>
+          <t>38150</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>VERTRIEU</t>
+          <t>Salaise-sur-Sanne 38150</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr"/>
       <c r="M50" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>9.609999999999999</v>
+        <v>0</v>
       </c>
       <c r="O50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P50" s="2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>9.609999999999999</v>
+        <v>20</v>
       </c>
       <c r="R50" s="2" t="inlineStr">
         <is>
@@ -4300,7 +4354,7 @@
       </c>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>paypal</t>
+          <t>Chèque</t>
         </is>
       </c>
       <c r="T50" s="2" t="n"/>
@@ -4308,30 +4362,32 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>112ssss@mail.com</t>
+          <t>uhu761@test.fr</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>FROID</t>
+          <t>CHAUD</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Henri</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>240129PF1</t>
+          <t>240129HC1</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G51" s="2" t="b">
         <v>0</v>
       </c>
@@ -4340,34 +4396,34 @@
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>35 avenue du dromadaire</t>
+          <t>36 rue du hamster</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>38150</t>
+          <t>38300</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>Salaise-sur-Sanne 38150</t>
+          <t>BOURGOIN JALLIEU</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr"/>
       <c r="M51" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P51" s="2" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
@@ -4384,30 +4440,32 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>uhu761@test.fr</t>
+          <t>azaz541@test.fr</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>CHAUD</t>
+          <t>TIÈDE</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Henri</t>
+          <t>Alice</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>240129HC1</t>
+          <t>240129AT1</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F52" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G52" s="2" t="b">
         <v>0</v>
       </c>
@@ -4416,34 +4474,34 @@
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>36 rue du hamster</t>
+          <t>37 rue du lapin</t>
         </is>
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>38300</t>
+          <t>38610</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>BOURGOIN JALLIEU</t>
+          <t>Gieres</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr"/>
       <c r="M52" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N52" s="2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P52" s="2" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R52" s="2" t="inlineStr">
         <is>
@@ -4460,22 +4518,22 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>azaz541@test.fr</t>
+          <t>lmm4@mail.com</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>TIÈDE</t>
+          <t>BOURDON</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Julien</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>240129AT1</t>
+          <t>240131JB1</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
@@ -4485,24 +4543,24 @@
       </c>
       <c r="F53" s="2" t="n"/>
       <c r="G53" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="2" t="b">
         <v>1</v>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>37 rue du lapin</t>
+          <t>39 rue de la gerbille</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr">
         <is>
-          <t>38610</t>
+          <t>38090</t>
         </is>
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>Gieres</t>
+          <t>Villefontaine</t>
         </is>
       </c>
       <c r="L53" s="2" t="inlineStr"/>
@@ -4510,25 +4568,25 @@
         <v>0</v>
       </c>
       <c r="N53" s="2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="O53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P53" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R53" s="2" t="inlineStr">
         <is>
-          <t>29/01/2024</t>
+          <t>31/01/2024</t>
         </is>
       </c>
       <c r="S53" s="2" t="inlineStr">
         <is>
-          <t>Chèque</t>
+          <t>paypal</t>
         </is>
       </c>
       <c r="T53" s="2" t="n"/>
@@ -4536,75 +4594,77 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>lmm4@mail.com</t>
+          <t>test@mail.com</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>BOURDON</t>
+          <t>COBAIN</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Julien</t>
+          <t>Kurt</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>240131JB1</t>
+          <t>240202KC1</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="n"/>
+          <t>RA</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="G54" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2" t="b">
         <v>1</v>
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>39 rue de la gerbille</t>
+          <t>1 allée Keanu Reeves</t>
         </is>
       </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>38090</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>Villefontaine</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="L54" s="2" t="inlineStr"/>
       <c r="M54" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N54" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P54" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q54" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R54" s="2" t="inlineStr">
         <is>
-          <t>31/01/2024</t>
+          <t>02/02/2024</t>
         </is>
       </c>
       <c r="S54" s="2" t="inlineStr">
         <is>
-          <t>paypal</t>
+          <t>Espèce</t>
         </is>
       </c>
       <c r="T54" s="2" t="n"/>
@@ -4612,22 +4672,22 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>test@mail.com</t>
+          <t>zdeokek@mail.com</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>COBAIN</t>
+          <t>BOULANGER</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Kurt</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>240202KC1</t>
+          <t>240802VB1</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
@@ -4644,43 +4704,47 @@
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>1 allée Keanu Reeves</t>
+          <t>6 ter Passage du Chat Européen Appt 66</t>
         </is>
       </c>
       <c r="J55" s="2" t="inlineStr">
         <is>
-          <t>38000</t>
+          <t>38010</t>
         </is>
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>Grenoble</t>
-        </is>
-      </c>
-      <c r="L55" s="2" t="inlineStr"/>
+          <t>Gre-sur-Isère</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>0606060606</t>
+        </is>
+      </c>
       <c r="M55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N55" s="2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P55" s="2" t="n">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="Q55" s="2" t="n">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="R55" s="2" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>02/08/2024</t>
         </is>
       </c>
       <c r="S55" s="2" t="inlineStr">
         <is>
-          <t>Espèce</t>
+          <t>cb</t>
         </is>
       </c>
       <c r="T55" s="2" t="n"/>
@@ -4688,27 +4752,27 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>zdeokek@mail.com</t>
+          <t>vincent.bourdon41@gmail.com</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>BOULANGER</t>
+          <t>BOURDON</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>240802VB1</t>
+          <t>241231VB1;241001VB1</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>RAA</t>
         </is>
       </c>
       <c r="F56" s="2" t="n"/>
@@ -4720,22 +4784,22 @@
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>6 ter Passage du Chat Européen Appt 66</t>
+          <t xml:space="preserve">6 Allée Aloyzi Kospicki </t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>38010</t>
+          <t>38000</t>
         </is>
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>Gre-sur-Isère</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>0606060606</t>
+          <t>0760576629</t>
         </is>
       </c>
       <c r="M56" s="2" t="n">
@@ -4745,17 +4809,17 @@
         <v>18</v>
       </c>
       <c r="O56" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="P56" s="2" t="n">
-        <v>193</v>
+        <v>1154</v>
       </c>
       <c r="Q56" s="2" t="n">
-        <v>211</v>
+        <v>1190</v>
       </c>
       <c r="R56" s="2" t="inlineStr">
         <is>
-          <t>02/08/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="S56" s="2" t="inlineStr">
@@ -4766,84 +4830,110 @@
       <c r="T56" s="2" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>vincent.bourdon41@gmail.com</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>BOURDON</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>Vincent</t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="inlineStr">
-        <is>
-          <t>241001VB1</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="A57" s="2" t="n"/>
+      <c r="B57" s="2" t="n"/>
+      <c r="C57" s="2" t="n"/>
+      <c r="D57" s="2" t="n"/>
+      <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
-      <c r="G57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6 Allée Aloyzi Kospicki </t>
-        </is>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>38000</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="inlineStr">
-        <is>
-          <t>Grenoble</t>
-        </is>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
-        <is>
-          <t>0760576629</t>
-        </is>
-      </c>
-      <c r="M57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="O57" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="P57" s="2" t="n">
-        <v>154</v>
-      </c>
-      <c r="Q57" s="2" t="n">
-        <v>190</v>
-      </c>
-      <c r="R57" s="2" t="inlineStr">
-        <is>
-          <t>01/10/2024</t>
-        </is>
-      </c>
-      <c r="S57" s="2" t="inlineStr">
-        <is>
-          <t>cb</t>
-        </is>
-      </c>
+      <c r="G57" s="2" t="n"/>
+      <c r="H57" s="2" t="n"/>
+      <c r="I57" s="2" t="n"/>
+      <c r="J57" s="2" t="n"/>
+      <c r="K57" s="2" t="n"/>
+      <c r="L57" s="2" t="n"/>
+      <c r="M57" s="2" t="n"/>
+      <c r="N57" s="2" t="n"/>
+      <c r="O57" s="2" t="n"/>
+      <c r="P57" s="2" t="n"/>
+      <c r="Q57" s="2" t="n"/>
+      <c r="R57" s="2" t="n"/>
+      <c r="S57" s="2" t="n"/>
       <c r="T57" s="2" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Nombre de reçus</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="C58" s="2" t="n"/>
+      <c r="D58" s="2" t="n"/>
+      <c r="E58" s="2" t="n"/>
+      <c r="F58" s="2" t="n"/>
+      <c r="G58" s="2" t="n"/>
+      <c r="H58" s="2" t="n"/>
+      <c r="I58" s="2" t="n"/>
+      <c r="J58" s="2" t="n"/>
+      <c r="K58" s="2" t="n"/>
+      <c r="L58" s="2" t="n"/>
+      <c r="M58" s="2" t="n"/>
+      <c r="N58" s="2" t="n"/>
+      <c r="O58" s="2" t="n"/>
+      <c r="P58" s="2" t="n"/>
+      <c r="Q58" s="2" t="n"/>
+      <c r="R58" s="2" t="n"/>
+      <c r="S58" s="2" t="n"/>
+      <c r="T58" s="2" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>Total avec reçus</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>6387.46</v>
+      </c>
+      <c r="C59" s="2" t="n"/>
+      <c r="D59" s="2" t="n"/>
+      <c r="E59" s="2" t="n"/>
+      <c r="F59" s="2" t="n"/>
+      <c r="G59" s="2" t="n"/>
+      <c r="H59" s="2" t="n"/>
+      <c r="I59" s="2" t="n"/>
+      <c r="J59" s="2" t="n"/>
+      <c r="K59" s="2" t="n"/>
+      <c r="L59" s="2" t="n"/>
+      <c r="M59" s="2" t="n"/>
+      <c r="N59" s="2" t="n"/>
+      <c r="O59" s="2" t="n"/>
+      <c r="P59" s="2" t="n"/>
+      <c r="Q59" s="2" t="n"/>
+      <c r="R59" s="2" t="n"/>
+      <c r="S59" s="2" t="n"/>
+      <c r="T59" s="2" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Total sans reçus</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>163.12</v>
+      </c>
+      <c r="C60" s="2" t="n"/>
+      <c r="D60" s="2" t="n"/>
+      <c r="E60" s="2" t="n"/>
+      <c r="F60" s="2" t="n"/>
+      <c r="G60" s="2" t="n"/>
+      <c r="H60" s="2" t="n"/>
+      <c r="I60" s="2" t="n"/>
+      <c r="J60" s="2" t="n"/>
+      <c r="K60" s="2" t="n"/>
+      <c r="L60" s="2" t="n"/>
+      <c r="M60" s="2" t="n"/>
+      <c r="N60" s="2" t="n"/>
+      <c r="O60" s="2" t="n"/>
+      <c r="P60" s="2" t="n"/>
+      <c r="Q60" s="2" t="n"/>
+      <c r="R60" s="2" t="n"/>
+      <c r="S60" s="2" t="n"/>
+      <c r="T60" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/donnees/listesAdherents/2024.xlsx
+++ b/donnees/listesAdherents/2024.xlsx
@@ -605,7 +605,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>240124NG1;240102NGR1</t>
+          <t>240124NG1</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -614,10 +614,8 @@
         </is>
       </c>
       <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>P&amp;R</t>
-        </is>
+      <c r="G2" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="H2" s="2" t="b">
         <v>1</v>
@@ -686,7 +684,7 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>240122NA1;240102NAR1</t>
+          <t>240122NA1</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -695,10 +693,8 @@
         </is>
       </c>
       <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>P&amp;R</t>
-        </is>
+      <c r="G3" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="H3" s="2" t="b">
         <v>1</v>
@@ -1638,20 +1634,14 @@
           <t>Olivia</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>240109OPR1</t>
-        </is>
-      </c>
+      <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F15" s="2" t="n"/>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="G15" s="2" t="n"/>
       <c r="H15" s="2" t="b">
         <v>1</v>
       </c>
@@ -2434,20 +2424,14 @@
           <t>Moral</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>240114MMR1</t>
-        </is>
-      </c>
+      <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="G25" s="2" t="n"/>
       <c r="H25" s="2" t="b">
         <v>1</v>
       </c>
@@ -3396,20 +3380,14 @@
           <t>Bérangère</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr">
-        <is>
-          <t>240119BMR1</t>
-        </is>
-      </c>
+      <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F37" s="2" t="n"/>
-      <c r="G37" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="G37" s="2" t="n"/>
       <c r="H37" s="2" t="b">
         <v>1</v>
       </c>
@@ -3475,20 +3453,14 @@
           <t>Jacques</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>240120JJR1</t>
-        </is>
-      </c>
+      <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F38" s="2" t="n"/>
-      <c r="G38" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="G38" s="2" t="n"/>
       <c r="H38" s="2" t="b">
         <v>1</v>
       </c>
@@ -4348,20 +4320,14 @@
           <t>Therese</t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr">
-        <is>
-          <t>240129TWR1</t>
-        </is>
-      </c>
+      <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F49" s="2" t="n"/>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="G49" s="2" t="n"/>
       <c r="H49" s="2" t="b">
         <v>1</v>
       </c>
@@ -4670,20 +4636,14 @@
           <t>Julien</t>
         </is>
       </c>
-      <c r="D53" s="2" t="inlineStr">
-        <is>
-          <t>240131JBR1</t>
-        </is>
-      </c>
+      <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
       <c r="F53" s="2" t="n"/>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="G53" s="2" t="n"/>
       <c r="H53" s="2" t="b">
         <v>1</v>
       </c>
@@ -5068,7 +5028,7 @@
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>68.12</v>
+        <v>0</v>
       </c>
       <c r="C60" s="2" t="n"/>
       <c r="D60" s="2" t="n"/>

--- a/donnees/listesAdherents/2024.xlsx
+++ b/donnees/listesAdherents/2024.xlsx
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>240105AR1;240110AR1</t>
+          <t>240105AR1;240110AR2</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
+          <t>DON-ADH</t>
         </is>
       </c>
       <c r="F36" s="2" t="n">
@@ -3921,12 +3921,12 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>240123NP1</t>
+          <t>240123NP1;240123NP2</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
+          <t>DON-ADH</t>
         </is>
       </c>
       <c r="F44" s="2" t="n">
@@ -3964,10 +3964,10 @@
         <v>0</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>RA</t>
+          <t>DON-ADH</t>
         </is>
       </c>
       <c r="F46" s="2" t="n">
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C58" s="2" t="n"/>
       <c r="D58" s="2" t="n"/>
@@ -4999,7 +4999,7 @@
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>6387.46</v>
+        <v>6402.46</v>
       </c>
       <c r="C59" s="2" t="n"/>
       <c r="D59" s="2" t="n"/>
